--- a/总结/前端/JS.xlsx
+++ b/总结/前端/JS.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansong/GitHub/总结/前端/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="27780" windowHeight="17540" tabRatio="698" activeTab="9"/>
+    <workbookView xWindow="1020" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="698" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="继承方式" sheetId="21" r:id="rId1"/>
@@ -40,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="1000">
   <si>
     <t>typeof(NaN): number</t>
   </si>
@@ -1391,10 +1386,6 @@
   </si>
   <si>
     <t>只读。正则表达式的源文本。不包含 /.../ 和标志位。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读。是否开启粘滞匹配。跟y相关。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1452,10 +1443,6 @@
 Unicode。将模式视为Unicode码位（code points）序列。
 y
 在目标字符串的正则表达式的lastIndex属性表示只从指数的比赛（而不是试图从以后的任何指标匹配）。这使得比赛只在字符“^”有效地被用于在字符串中的任何位置，通过改变的lastIndex属性值启动能力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读。Unicode模式。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -12478,12 +12465,84 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>RegExp.prototype.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flags</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读。一个字符串，由当前正则表达式对象的标志组成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读。Unicode模式，正确识别双字节的UTF-16字符。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RegExp.prototype.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dotAll</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读。dotAll模式，即点（dot）代表一切字符。用s代表。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读。是否开启粘滞匹配。用y代表。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(?&lt;=y)x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(?&lt;!y)x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有当 x 前面紧跟着 y 时，才匹配 x，但是匹配结果不包括那些字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有当 x 前面不是紧跟着 y 时，才匹配 x，但是匹配结果不包括那些字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12555,6 +12614,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -12705,74 +12771,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -12824,7 +12822,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -12859,7 +12857,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -13077,123 +13075,123 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="53.1640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="13"/>
+    <col min="1" max="1" width="53.125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="46.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="148.5">
+      <c r="A2" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="165" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="12"/>
+    </row>
+    <row r="4" spans="1:2" ht="121.5">
+      <c r="A4" s="14" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="B4" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="B3" s="12"/>
-    </row>
-    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="148.5">
+      <c r="A5" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B5" s="14" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="1:2" ht="121.5">
+      <c r="A7" s="14" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="1:2" ht="135" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="148.5">
+      <c r="A8" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B8" s="14" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="165" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+    <row r="9" spans="1:2" ht="148.5">
+      <c r="A9" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B9" s="14" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="165" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="1:2" ht="175.5">
+      <c r="A11" s="14" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="B10" s="12"/>
-    </row>
-    <row r="11" spans="1:2" ht="195" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="135">
+      <c r="A12" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B12" s="14" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+    <row r="13" spans="1:2" ht="94.5">
+      <c r="A13" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B13" s="14" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:2" ht="285" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="256.5">
       <c r="A15" s="14" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -13205,523 +13203,567 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="27">
       <c r="A2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="40.5">
       <c r="A4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>761</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="C5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>991</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="C7" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>751</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>753</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>754</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B9" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>988</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>755</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>763</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B11" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27">
+      <c r="A12" s="2" t="s">
         <v>756</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C8" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>757</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C11" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>344</v>
       </c>
       <c r="C12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27">
+      <c r="A13" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C13" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="27">
+      <c r="A14" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="27">
+      <c r="A15" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27">
+      <c r="A16" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C13" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="C16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="216">
+      <c r="A18" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="67.5">
+      <c r="A19" t="s">
         <v>762</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C14" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="240" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B19" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="40.5">
+      <c r="A20" t="s">
+        <v>763</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>764</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>765</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D18" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>766</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
         <v>266</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
         <v>270</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
         <v>268</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
         <v>275</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>273</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B28" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="67.5">
+      <c r="A29" t="s">
         <v>272</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="30" spans="1:4" ht="67.5">
+      <c r="A30" t="s">
         <v>271</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>12</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
         <v>16</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>13</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>14</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>15</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>280</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>259</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="38" spans="1:2" ht="27">
+      <c r="A38" t="s">
         <v>283</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
         <v>287</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>285</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>291</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>289</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>296</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>294</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>302</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="49" spans="1:2" ht="40.5">
+      <c r="A49" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>299</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="52" spans="1:2" ht="27">
+      <c r="A52" t="s">
         <v>309</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>307</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="54" spans="1:2" ht="54">
+      <c r="A54" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="55" spans="1:2" ht="27">
+      <c r="A55" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="34" t="s">
+      <c r="B55" s="2" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="34" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B57" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="34" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="34" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="34" t="s">
         <v>328</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="34" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="34" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B61" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>316</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>315</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>322</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>321</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="27">
+      <c r="A63" t="s">
+        <v>316</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="27">
+      <c r="A64" t="s">
+        <v>315</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="27">
+      <c r="A65" t="s">
+        <v>995</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C65" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="27">
+      <c r="A66" t="s">
+        <v>996</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="C66" t="s">
+        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -13739,124 +13781,124 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="27">
       <c r="A11" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="27">
       <c r="A12" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="27">
       <c r="A13" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="27">
       <c r="A14" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>213</v>
@@ -13865,9 +13907,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="27">
       <c r="A15" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>214</v>
@@ -13876,9 +13918,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="27">
       <c r="A16" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>216</v>
@@ -13887,64 +13929,64 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="27">
       <c r="A17" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="27">
       <c r="A18" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="27">
       <c r="A19" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="27">
       <c r="A20" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="27">
       <c r="A21" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="40.5">
       <c r="A22" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>226</v>
@@ -13953,9 +13995,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="40.5">
       <c r="A23" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>227</v>
@@ -13964,9 +14006,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="54">
       <c r="A24" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>228</v>
@@ -13975,146 +14017,146 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="27">
       <c r="A26" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="27">
       <c r="A27" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="27">
       <c r="A28" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="27">
       <c r="A29" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="27">
       <c r="A30" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D30" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="27">
       <c r="A31" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D31" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="27">
       <c r="A32" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D32" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="27">
       <c r="A33" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D33" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="27">
+      <c r="A34" s="3" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>739</v>
-      </c>
       <c r="B34" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D34" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="27">
+      <c r="A35" s="3" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>740</v>
-      </c>
       <c r="B35" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D35" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="27">
       <c r="A36" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>217</v>
@@ -14123,12 +14165,12 @@
         <v>212</v>
       </c>
       <c r="D36" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="27">
       <c r="A37" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>218</v>
@@ -14137,12 +14179,12 @@
         <v>212</v>
       </c>
       <c r="D37" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="27">
       <c r="A38" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>219</v>
@@ -14151,12 +14193,12 @@
         <v>215</v>
       </c>
       <c r="D38" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="54">
       <c r="A39" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>220</v>
@@ -14165,12 +14207,12 @@
         <v>221</v>
       </c>
       <c r="D39" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="27">
       <c r="A40" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>223</v>
@@ -14179,12 +14221,12 @@
         <v>212</v>
       </c>
       <c r="D40" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="27">
       <c r="A41" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>224</v>
@@ -14193,12 +14235,12 @@
         <v>212</v>
       </c>
       <c r="D41" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="27">
       <c r="A42" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>222</v>
@@ -14207,12 +14249,12 @@
         <v>212</v>
       </c>
       <c r="D42" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="27">
       <c r="A43" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>231</v>
@@ -14221,12 +14263,12 @@
         <v>212</v>
       </c>
       <c r="D43" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="27">
       <c r="A44" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>232</v>
@@ -14235,12 +14277,12 @@
         <v>212</v>
       </c>
       <c r="D44" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="27">
       <c r="A45" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>233</v>
@@ -14249,7 +14291,7 @@
         <v>212</v>
       </c>
       <c r="D45" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -14266,488 +14308,488 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="62.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="62.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="330" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="297">
       <c r="A2" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27">
+      <c r="A4" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="189">
+      <c r="A5" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27">
+      <c r="A16" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="27">
+      <c r="A31" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C44" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="27">
+      <c r="A45" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C45" t="s">
         <v>364</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="210" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="C44" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="C45" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="3"/>
       <c r="B46" s="8"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="3"/>
       <c r="B47" s="8"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="3"/>
       <c r="B48" s="8"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2">
       <c r="B73"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2">
       <c r="B74"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2">
       <c r="B77"/>
     </row>
   </sheetData>
@@ -14764,396 +14806,396 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="64.1640625" customWidth="1"/>
-    <col min="2" max="2" width="75.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="51.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="64.125" customWidth="1"/>
+    <col min="2" max="2" width="75.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="51.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="40.5">
       <c r="A4" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27">
+      <c r="A6" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27">
+      <c r="A7" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="175.5">
+      <c r="A9" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="162">
+      <c r="A10" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27">
+      <c r="A11" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27">
+      <c r="A12" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="67.5">
+      <c r="A13" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="229.5">
+      <c r="A14" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27">
+      <c r="A15" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>920</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="135">
+      <c r="A16" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>927</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="121.5">
+      <c r="A17" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>928</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="81">
+      <c r="A18" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>940</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="81">
+      <c r="A19" s="8" t="s">
+        <v>934</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>940</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="81">
+      <c r="A20" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>939</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>940</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="81">
+      <c r="A21" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>940</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="81">
+      <c r="A22" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>940</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="175.5">
+      <c r="A23" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>946</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="175.5">
+      <c r="A24" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>947</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="94.5">
+      <c r="A25" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>951</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="27">
+      <c r="A26" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="165" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="180" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>916</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="255" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>918</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="C26" s="32" t="s">
+        <v>953</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="81">
+      <c r="A27" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>956</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="81">
+      <c r="A28" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C28" s="32" t="s">
+        <v>955</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="3" customFormat="1">
+      <c r="A29" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="81">
+      <c r="A30" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>940</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="81">
+      <c r="A31" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>940</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="8" t="s">
         <v>922</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="B32" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>921</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="150" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>929</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>930</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>942</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>936</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>937</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>942</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>935</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>941</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>942</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>934</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>938</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>942</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>933</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>940</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>942</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="195" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>950</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>948</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="195" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>947</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>949</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>953</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>954</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>955</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>958</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>957</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>946</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>945</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>942</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>944</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>942</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>924</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>925</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>923</v>
       </c>
     </row>
   </sheetData>
@@ -15171,35 +15213,35 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="51.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27">
       <c r="A3" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -15207,7 +15249,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -15215,7 +15257,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>235</v>
       </c>
@@ -15223,12 +15265,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="40.5">
       <c r="A8" s="3" t="s">
         <v>239</v>
       </c>
@@ -15239,7 +15281,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="27">
       <c r="A9" s="3" t="s">
         <v>242</v>
       </c>
@@ -15250,7 +15292,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="27">
       <c r="A10" s="3" t="s">
         <v>243</v>
       </c>
@@ -15261,7 +15303,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="27">
       <c r="A11" s="3" t="s">
         <v>244</v>
       </c>
@@ -15272,7 +15314,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="108">
       <c r="A12" s="3" t="s">
         <v>248</v>
       </c>
@@ -15283,7 +15325,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="27">
       <c r="A13" s="3" t="s">
         <v>251</v>
       </c>
@@ -15294,7 +15336,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>252</v>
       </c>
@@ -15302,7 +15344,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="27">
       <c r="A15" s="3" t="s">
         <v>253</v>
       </c>
@@ -15313,7 +15355,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>254</v>
       </c>
@@ -15321,7 +15363,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="27">
       <c r="A17" s="3" t="s">
         <v>255</v>
       </c>
@@ -15335,18 +15377,18 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D18" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
         <v>263</v>
       </c>
@@ -15354,7 +15396,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
         <v>261</v>
       </c>
@@ -15362,94 +15404,94 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="54">
+      <c r="A25" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="B27" s="8" t="s">
+      <c r="B28" s="8" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>963</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="B29" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>966</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>968</v>
-      </c>
-      <c r="B30" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>98</v>
       </c>
@@ -15457,7 +15499,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>234</v>
       </c>
@@ -15465,12 +15507,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
   </sheetData>
@@ -15487,53 +15529,53 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="38.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="45.875" style="22" customWidth="1"/>
     <col min="3" max="3" width="37.5" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="22"/>
+    <col min="4" max="16384" width="8.875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="18" customFormat="1" ht="13.5">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
     </row>
-    <row r="2" spans="1:5" ht="56" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="56.25">
       <c r="A2" s="20" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="111">
+      <c r="A3" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D3" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>507</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>432</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>504</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>505</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>432</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -15550,149 +15592,149 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="18"/>
+    <col min="1" max="1" width="51.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>494</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="C6" s="18" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>499</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="B7" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>492</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>490</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>498</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="108">
       <c r="A9" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="B9" s="17" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="16" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="C9" s="19" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B13" s="17" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B14" s="17" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B15" s="17" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B16" s="17" t="s">
         <v>485</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -15709,443 +15751,444 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="66.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="14.25">
       <c r="A1" s="23" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="23" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="14.25">
       <c r="A5" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25">
+      <c r="A6" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+    <row r="7" spans="1:2" ht="14.25">
+      <c r="A7" s="24" t="s">
         <v>516</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+    <row r="8" spans="1:2" ht="41.25">
+      <c r="A8" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B8" s="24" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="44" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>520</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="14.25">
       <c r="A10" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.25">
+      <c r="A11" s="24" t="s">
         <v>522</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+    <row r="12" spans="1:2" ht="14.25">
+      <c r="A12" s="24" t="s">
         <v>524</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B12" s="26" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+    <row r="13" spans="1:2" ht="14.25">
+      <c r="A13" s="24" t="s">
         <v>526</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+    <row r="14" spans="1:2" ht="108">
+      <c r="A14" s="24" t="s">
         <v>528</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B14" s="28" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="112" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
-        <v>530</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15">
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="14.25">
       <c r="A16" s="23" t="s">
+        <v>530</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25">
+      <c r="A17" s="24" t="s">
         <v>532</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B17" s="26" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+    <row r="18" spans="1:2" ht="14.25">
+      <c r="A18" s="24" t="s">
         <v>534</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B18" s="26" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+    <row r="19" spans="1:2" ht="14.25">
+      <c r="A19" s="24" t="s">
         <v>536</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B19" s="24" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
+    <row r="20" spans="1:2" ht="14.25">
+      <c r="A20" s="24" t="s">
         <v>538</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B20" s="24" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
+    <row r="21" spans="1:2" ht="14.25">
+      <c r="A21" s="24" t="s">
         <v>540</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B21" s="26" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
+    <row r="22" spans="1:2" ht="14.25">
+      <c r="A22" s="24" t="s">
         <v>542</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B22" s="26" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
+    <row r="23" spans="1:2" ht="14.25">
+      <c r="A23" s="24" t="s">
         <v>544</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B23" s="24" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
+    <row r="24" spans="1:2" ht="14.25">
+      <c r="A24" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B24" s="26" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+    <row r="25" spans="1:2" ht="14.25">
+      <c r="A25" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B25" s="24" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
-        <v>550</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="14.25">
       <c r="A26" s="24"/>
       <c r="B26" s="24"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="14.25">
       <c r="A27" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.25">
+      <c r="A28" s="29" t="s">
         <v>552</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B28" s="30" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
+    <row r="29" spans="1:2" ht="67.5">
+      <c r="A29" s="24" t="s">
         <v>554</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B29" s="28" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="70" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="s">
-        <v>556</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="14.25">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="14.25">
       <c r="A31" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14.25">
+      <c r="A32" s="29" t="s">
         <v>558</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B32" s="30" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
+    <row r="33" spans="1:2" ht="14.25">
+      <c r="A33" s="24" t="s">
         <v>560</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B33" s="24" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
+    <row r="34" spans="1:2" ht="14.25">
+      <c r="A34" s="24" t="s">
         <v>562</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B34" s="24" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
+    <row r="35" spans="1:2" ht="27">
+      <c r="A35" s="24" t="s">
         <v>564</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B35" s="27" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
+    <row r="36" spans="1:2" ht="14.25">
+      <c r="A36" s="29" t="s">
         <v>566</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B36" s="29" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
+    <row r="37" spans="1:2" ht="14.25">
+      <c r="A37" s="29" t="s">
         <v>568</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B37" s="29" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
+    <row r="38" spans="1:2" ht="14.25">
+      <c r="A38" s="29" t="s">
         <v>570</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B38" s="29" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
+    <row r="39" spans="1:2" ht="14.25">
+      <c r="A39" s="29" t="s">
         <v>572</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B39" s="29" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="29" t="s">
+    <row r="40" spans="1:2" ht="14.25">
+      <c r="A40" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B40" s="29" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="29" t="s">
+    <row r="41" spans="1:2" ht="14.25">
+      <c r="A41" s="29" t="s">
         <v>576</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B41" s="29" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="29" t="s">
+    <row r="42" spans="1:2" ht="14.25">
+      <c r="A42" s="29" t="s">
         <v>578</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B42" s="29" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
+    <row r="43" spans="1:2" ht="14.25">
+      <c r="A43" s="29" t="s">
         <v>580</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B43" s="29" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
-        <v>582</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="14.25">
       <c r="A44" s="29"/>
       <c r="B44" s="30"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="14.25">
       <c r="A45" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="14.25">
+      <c r="A46" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B46" s="24" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="24" t="s">
+    <row r="47" spans="1:2" ht="14.25">
+      <c r="A47" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B47" s="24" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="24" t="s">
+    <row r="48" spans="1:2" ht="14.25">
+      <c r="A48" s="24" t="s">
         <v>588</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B48" s="24" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="24" t="s">
+    <row r="49" spans="1:2" ht="14.25">
+      <c r="A49" s="24" t="s">
         <v>590</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B49" s="24" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="24" t="s">
+    <row r="50" spans="1:2" ht="14.25">
+      <c r="A50" s="24" t="s">
         <v>592</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B50" s="24" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="24" t="s">
+    <row r="51" spans="1:2" ht="14.25">
+      <c r="A51" s="24" t="s">
         <v>594</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B51" s="24" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="24" t="s">
+    <row r="52" spans="1:2" ht="14.25">
+      <c r="A52" s="24" t="s">
         <v>596</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B52" s="24" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="24" t="s">
+    <row r="53" spans="1:2" ht="14.25">
+      <c r="A53" s="24" t="s">
         <v>598</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B53" s="24" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="24" t="s">
+    <row r="54" spans="1:2" ht="14.25">
+      <c r="A54" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B54" s="30" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="29" t="s">
+    <row r="55" spans="1:2" ht="14.25">
+      <c r="A55" s="24" t="s">
         <v>602</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B55" s="24" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="24" t="s">
+    <row r="56" spans="1:2" ht="14.25">
+      <c r="A56" s="24" t="s">
         <v>604</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B56" s="24" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="24" t="s">
+    <row r="57" spans="1:2" ht="27">
+      <c r="A57" s="24" t="s">
         <v>606</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B57" s="27" t="s">
         <v>607</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="29" x14ac:dyDescent="0.2">
-      <c r="A57" s="24" t="s">
-        <v>608</v>
-      </c>
-      <c r="B57" s="27" t="s">
-        <v>609</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16157,33 +16200,33 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -16191,15 +16234,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="27">
       <c r="B7" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>64</v>
       </c>
@@ -16207,107 +16250,107 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="15">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="15">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="15">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="15">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="15">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="15">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="15">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
@@ -16315,47 +16358,47 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
         <v>65</v>
       </c>
@@ -16363,59 +16406,59 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
         <v>76</v>
       </c>
@@ -16423,53 +16466,53 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>42</v>
       </c>
@@ -16477,47 +16520,47 @@
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
         <v>89</v>
       </c>
@@ -16525,11 +16568,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" s="3" t="s">
         <v>43</v>
       </c>
@@ -16537,25 +16580,25 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
         <v>95</v>
@@ -16575,92 +16618,92 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="110.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="18"/>
+    <col min="2" max="2" width="110.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="18" t="s">
+        <v>968</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="18" t="s">
         <v>970</v>
       </c>
-      <c r="B1" s="18" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="18" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="18" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="18" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="18" t="s">
+      <c r="B9" s="18" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
+    <row r="10" spans="1:2">
+      <c r="B10" s="18" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="18" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="18" t="s">
+    <row r="12" spans="1:2">
+      <c r="B12" s="18" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="18" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="18" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="18" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="18" t="s">
         <v>984</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>973</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="18" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="18" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13" s="18" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="18" t="s">
-        <v>986</v>
       </c>
     </row>
   </sheetData>
@@ -16678,19 +16721,19 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -16698,7 +16741,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -16706,7 +16749,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -16714,7 +16757,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -16722,7 +16765,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -16730,7 +16773,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -16738,37 +16781,37 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27">
+      <c r="A10" s="33" t="s">
+        <v>986</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B11" t="s">
         <v>442</v>
-      </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>439</v>
-      </c>
-      <c r="B9" t="s">
-        <v>440</v>
-      </c>
-      <c r="C9" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
-        <v>988</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B11" t="s">
-        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -16785,76 +16828,76 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="88" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="46.625" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>617</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>619</v>
       </c>
       <c r="B3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="27">
       <c r="A6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C6" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27">
       <c r="A7" t="s">
         <v>137</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C7" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="27">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -16862,10 +16905,10 @@
         <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="40.5">
       <c r="A10" t="s">
         <v>139</v>
       </c>
@@ -16873,342 +16916,342 @@
         <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="27">
       <c r="A12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C12" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27">
       <c r="A13" t="s">
         <v>136</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C13" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="27">
       <c r="A15" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27">
       <c r="A16" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27">
+      <c r="A17" t="s">
+        <v>635</v>
+      </c>
+      <c r="B17" t="s">
+        <v>633</v>
+      </c>
+      <c r="C17" s="31" t="s">
         <v>634</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="27">
+      <c r="A18" t="s">
         <v>637</v>
-      </c>
-      <c r="B17" t="s">
-        <v>635</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>639</v>
       </c>
       <c r="B18" t="s">
         <v>96</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>627</v>
+      </c>
+      <c r="B20" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>629</v>
       </c>
-      <c r="B20" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>631</v>
-      </c>
       <c r="B21" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="180" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="162">
       <c r="A22" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B22" t="s">
         <v>120</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D22" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="81">
       <c r="A23" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B23" t="s">
         <v>121</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D23" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="67.5">
       <c r="A24" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B24" t="s">
         <v>122</v>
       </c>
       <c r="C24" s="31" t="s">
+        <v>793</v>
+      </c>
+      <c r="D24" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="27">
+      <c r="A25" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>791</v>
+      </c>
+      <c r="D25" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="94.5">
+      <c r="A26" s="3" t="s">
         <v>795</v>
-      </c>
-      <c r="D24" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>793</v>
-      </c>
-      <c r="D25" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>797</v>
       </c>
       <c r="B26" t="s">
         <v>123</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D26" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="40.5">
       <c r="A27" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B27" t="s">
         <v>124</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D27" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="27">
       <c r="A28" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B28" t="s">
         <v>126</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D28" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="27">
       <c r="A29" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B29" t="s">
         <v>128</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D29" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="27">
       <c r="A30" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B30" t="s">
         <v>129</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D30" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="27">
       <c r="A31" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B31" t="s">
         <v>130</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D31" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="27">
       <c r="A32" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B32" t="s">
         <v>131</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D32" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="27">
       <c r="A33" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="B33" t="s">
         <v>808</v>
       </c>
-      <c r="B33" t="s">
-        <v>810</v>
-      </c>
       <c r="C33" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="D33" t="s">
         <v>807</v>
       </c>
-      <c r="D33" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:4" ht="27">
       <c r="A34" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D34" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="81">
       <c r="A35" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B35" t="s">
         <v>119</v>
       </c>
       <c r="C35" s="31" t="s">
+        <v>826</v>
+      </c>
+      <c r="D35" t="s">
         <v>828</v>
       </c>
-      <c r="D35" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:4" ht="27">
       <c r="A36" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B36" t="s">
         <v>125</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D36" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="81">
       <c r="A37" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B37" t="s">
         <v>127</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D37" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="54">
       <c r="A38" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B38" t="s">
         <v>132</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D38" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
   </sheetData>
@@ -17226,20 +17269,20 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.1640625" customWidth="1"/>
+    <col min="2" max="2" width="54.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.125" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
@@ -17247,58 +17290,58 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="81">
       <c r="A9" s="3" t="s">
         <v>144</v>
       </c>
@@ -17309,9 +17352,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="150" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="148.5">
       <c r="A10" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B10" t="s">
         <v>112</v>
@@ -17320,9 +17363,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="108">
       <c r="A11" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B11" t="s">
         <v>111</v>
@@ -17331,9 +17374,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="81">
       <c r="A12" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>153</v>
@@ -17342,7 +17385,7 @@
         <v>154</v>
       </c>
       <c r="D12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -17359,19 +17402,19 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="27">
       <c r="A2" s="3" t="s">
         <v>155</v>
       </c>
@@ -17396,87 +17439,87 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="51.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.875" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="27">
       <c r="A3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="54">
       <c r="A4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C8" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="27">
       <c r="A10" s="3" t="s">
         <v>158</v>
       </c>
@@ -17487,31 +17530,31 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="40.5">
       <c r="A11" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="54">
       <c r="A12" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="27">
       <c r="A13" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>184</v>
@@ -17520,9 +17563,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="27">
       <c r="A14" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>169</v>
@@ -17531,12 +17574,12 @@
         <v>167</v>
       </c>
       <c r="D14" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27">
       <c r="A15" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>171</v>
@@ -17545,12 +17588,12 @@
         <v>170</v>
       </c>
       <c r="D15" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27">
       <c r="A16" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>172</v>
@@ -17559,12 +17602,12 @@
         <v>173</v>
       </c>
       <c r="D16" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27">
       <c r="A17" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>174</v>
@@ -17573,12 +17616,12 @@
         <v>175</v>
       </c>
       <c r="D17" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27">
       <c r="A18" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>178</v>
@@ -17587,12 +17630,12 @@
         <v>176</v>
       </c>
       <c r="D18" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="121.5">
       <c r="A19" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>179</v>
@@ -17601,7 +17644,7 @@
         <v>180</v>
       </c>
       <c r="D19" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -17618,33 +17661,33 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="74.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="74.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.625" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="27">
       <c r="A4" s="3" t="s">
         <v>185</v>
       </c>
@@ -17655,476 +17698,476 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="27">
       <c r="A5" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>188</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27">
       <c r="A6" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C6" s="31" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="67.5">
+      <c r="A7" s="3" t="s">
         <v>837</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>839</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27">
       <c r="A8" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>192</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="121.5">
       <c r="A9" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C9" s="31" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="108">
+      <c r="A10" s="3" t="s">
         <v>842</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="105" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>844</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C10" s="31" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="229.5">
+      <c r="A11" s="3" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="255" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="31" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="68.25" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C12" s="31" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:3" ht="270">
+      <c r="A13" s="8" t="s">
         <v>850</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="300" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="C13" s="31" t="s">
         <v>852</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="67.5">
+      <c r="A14" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>853</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="195" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:3" ht="202.5">
       <c r="A15" s="3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C15" s="31" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="135">
+      <c r="A16" s="3" t="s">
         <v>862</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="150" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>864</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="94.5">
       <c r="A17" s="3" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="54">
       <c r="A18" s="3" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D23" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D24" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
         <v>876</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D24" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>878</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>208</v>
       </c>
       <c r="D25" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="27">
       <c r="A26" s="3" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D26" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="67.5">
       <c r="A27" s="3" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C27" s="31" t="s">
+        <v>893</v>
+      </c>
+      <c r="D27" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="27">
+      <c r="A28" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="D27" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>897</v>
-      </c>
       <c r="C28" s="31" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D28" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="67.5">
       <c r="A29" s="3" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D29" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="54">
+      <c r="A30" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="C30" s="31" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>887</v>
-      </c>
       <c r="D30" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="81">
       <c r="A31" s="3" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D31" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="108">
       <c r="A32" s="3" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D32" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="67.5">
       <c r="A33" s="3" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D33" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="40.5">
       <c r="A35" s="3" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="C35" s="31" t="s">
         <v>857</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>859</v>
       </c>
       <c r="D35" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="67.5">
       <c r="A36" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D36" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="3"/>
       <c r="B37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="3"/>
       <c r="B38" s="8"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="3"/>
       <c r="B39" s="8"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="3"/>
       <c r="B40" s="8"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="3"/>
       <c r="B41" s="8"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="3"/>
       <c r="B42" s="9"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="3"/>
       <c r="B43" s="9"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="4"/>
       <c r="B44" s="9"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="4"/>
       <c r="B45" s="9"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="4"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="4"/>
       <c r="B47" s="9"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="4"/>
       <c r="B48" s="9"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2">
       <c r="B68"/>
     </row>
   </sheetData>

--- a/总结/前端/JS.xlsx
+++ b/总结/前端/JS.xlsx
@@ -12486,10 +12486,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>只读。Unicode模式，正确识别双字节的UTF-16字符。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>RegExp.prototype.</t>
     </r>
@@ -12535,6 +12531,10 @@
   </si>
   <si>
     <t>未实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读。Unicode模式，正确识别四字节的UTF-16字符。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13205,8 +13205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -13250,7 +13250,7 @@
         <v>761</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C5" t="s">
         <v>329</v>
@@ -13261,7 +13261,7 @@
         <v>754</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>990</v>
+        <v>999</v>
       </c>
       <c r="C6" t="s">
         <v>329</v>
@@ -13269,13 +13269,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>990</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>992</v>
-      </c>
       <c r="C7" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -13746,24 +13746,24 @@
     </row>
     <row r="65" spans="1:3" ht="27">
       <c r="A65" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C65" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="27">
       <c r="A66" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C66" t="s">
         <v>998</v>
-      </c>
-      <c r="C66" t="s">
-        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -15765,7 +15765,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
     </row>
@@ -15777,7 +15777,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15">
+    <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
     </row>
@@ -15813,7 +15813,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15">
+    <row r="9" spans="1:2" ht="14.25">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
     </row>
@@ -15857,7 +15857,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15">
+    <row r="15" spans="1:2" ht="14.25">
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
     </row>
@@ -16239,7 +16239,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15">
+    <row r="8" spans="1:2">
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2">
@@ -16262,79 +16262,79 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15">
+    <row r="12" spans="1:2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15">
+    <row r="13" spans="1:2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15">
+    <row r="14" spans="1:2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15">
+    <row r="15" spans="1:2">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15">
+    <row r="16" spans="1:2">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15">
+    <row r="17" spans="1:2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15">
+    <row r="18" spans="1:2">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15">
+    <row r="19" spans="1:2">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15">
+    <row r="20" spans="1:2">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15">
+    <row r="21" spans="1:2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15">
+    <row r="22" spans="1:2">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15">
+    <row r="23" spans="1:2">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15">
+    <row r="24" spans="1:2">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>612</v>

--- a/总结/前端/JS.xlsx
+++ b/总结/前端/JS.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansong/GitHub/study_web/总结/前端/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="36480" yWindow="-3840" windowWidth="27780" windowHeight="17540" tabRatio="698" activeTab="8"/>
+    <workbookView xWindow="36480" yWindow="-3840" windowWidth="27780" windowHeight="16440" tabRatio="698" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="继承方式" sheetId="21" r:id="rId1"/>
@@ -40,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="1012">
   <si>
     <t>typeof(NaN): number</t>
   </si>
@@ -179,9 +174,6 @@
   </si>
   <si>
     <t>把字符串编码为 URI 组件。</t>
-  </si>
-  <si>
-    <t>计算 JavaScript 字符串，并把它作为脚本代码来执行。</t>
   </si>
   <si>
     <t>parseFloat()</t>
@@ -659,10 +651,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>在 JavaScript 中最大的安全整数 (253 - 1)。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>能表示的最大正数。最小的负数是 -MAX_VALUE。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -725,21 +713,6 @@
   </si>
   <si>
     <t>字符串转换为浮点数。始终忽略前导的零。第一个小数点有效。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>和全局对象 parseFloat() 一样。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>和全局对象 parseInt() 一样。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string
-被解析的值。如果不是一个字符串，则将其转换为字符串。字符串开头的空白符将会被忽略。
-radix
-一个整数值，指定转换中采用的基数。总是指定该参数可以保证结果可预测。当忽略该参数时，不同的实现环境可能产生不同的结果。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -945,10 +918,6 @@
   </si>
   <si>
     <t>判断x的符号, 是正数, 负数, 还是零。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回x的双曲正弦值。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -12147,10 +12116,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>遍历对象的属性值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>相等运算符</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -12209,16 +12174,6 @@
   </si>
   <si>
     <t>非数字字符串都转换为NaN，且NaN比较都为false</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0表示八进制
-0o表示八进制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0711
-0o711</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -12706,12 +12661,84 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>0表示八进制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0o711</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0o表示八进制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0711</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历类数组的属性值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Number.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MIN_SAFE_INTEGER</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript 中最小的安全整数 (-(253 - 1))。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript 中最大的安全整数 (253 - 1)。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算 JavaScript 字符串，并把它作为脚本代码来执行。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 ** 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数运算，2的3次方。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回 x 的双曲正弦值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6 ie无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12798,6 +12825,13 @@
       <name val="DengXian (正文)"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -13251,127 +13285,127 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="53.1640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="13"/>
+    <col min="1" max="1" width="53.125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="46.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="148.5">
+      <c r="A2" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3" s="12"/>
+    </row>
+    <row r="4" spans="1:2" ht="121.5">
+      <c r="A4" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="12" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="148.5">
+      <c r="A5" s="14" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="165" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="B5" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="B2" s="14" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="15" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="1:2" ht="121.5">
+      <c r="A7" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="B3" s="12"/>
-    </row>
-    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="B7" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="B4" s="14" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="148.5">
+      <c r="A8" s="14" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="B8" s="14" t="s">
         <v>449</v>
       </c>
-      <c r="B5" s="14" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="148.5">
+      <c r="A9" s="14" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="1:2" ht="135" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="1:2" ht="175.5">
+      <c r="A11" s="14" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="165" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="B11" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="B8" s="14" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="135">
+      <c r="A12" s="14" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="165" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="B12" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="B9" s="14" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="94.5">
+      <c r="A13" s="14" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B10" s="12"/>
-    </row>
-    <row r="11" spans="1:2" ht="195" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:2" ht="256.5">
+      <c r="A15" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B15" s="14" t="s">
         <v>460</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="12"/>
-    </row>
-    <row r="15" spans="1:2" ht="285" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>465</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -13389,295 +13423,295 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="27">
       <c r="A2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>741</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="40.5">
+      <c r="A4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>752</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="C5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="C6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>971</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C7" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>742</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>744</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>969</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="C10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>746</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27">
+      <c r="A12" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B12" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27">
+      <c r="A13" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="27">
+      <c r="A14" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C14" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>758</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="C5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="15" spans="1:3" ht="27">
+      <c r="A15" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27">
+      <c r="A16" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="C6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>980</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>981</v>
-      </c>
-      <c r="C7" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>748</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>750</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>978</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="C10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>752</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C11" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C13" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C14" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C15" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="C16" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="216">
       <c r="A18" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="67.5">
       <c r="A19" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="40.5">
+      <c r="A20" t="s">
+        <v>754</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>760</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>335</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D20" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>257</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B25" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>264</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="67.5">
+      <c r="A29" t="s">
         <v>263</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="67.5">
+      <c r="A30" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>267</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>265</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>272</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>270</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>269</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B30" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -13685,7 +13719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -13693,7 +13727,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -13701,249 +13735,249 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B36" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="27">
       <c r="A38" t="s">
+        <v>274</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>278</v>
+      </c>
+      <c r="B39" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>276</v>
+      </c>
+      <c r="B40" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>282</v>
+      </c>
+      <c r="B41" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>280</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B42" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>287</v>
+      </c>
+      <c r="B44" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>285</v>
+      </c>
+      <c r="B45" t="s">
         <v>284</v>
       </c>
-      <c r="B39" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>282</v>
-      </c>
-      <c r="B40" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B41" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>286</v>
-      </c>
-      <c r="B42" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>293</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B48" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>291</v>
-      </c>
-      <c r="B45" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>299</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="40.5">
       <c r="A49" t="s">
         <v>11</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>290</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="27">
+      <c r="A52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>298</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>296</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>306</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>304</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="54">
       <c r="A54" t="s">
         <v>13</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="27">
+      <c r="A55" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="B56" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="34" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="B57" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="B58" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="B59" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="B60" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="B61" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>313</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="27">
+      <c r="A63" t="s">
         <v>307</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B63" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="27">
+      <c r="A64" t="s">
+        <v>306</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="27">
+      <c r="A65" t="s">
+        <v>975</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="B56" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="B57" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="B58" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="B59" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="B60" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="B61" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>319</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>313</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>312</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>984</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>986</v>
-      </c>
       <c r="C65" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="27">
       <c r="A66" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="C66" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
     </row>
   </sheetData>
@@ -13957,521 +13991,524 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="27">
       <c r="A11" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27">
+      <c r="A12" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27">
+      <c r="A13" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="27">
+      <c r="A14" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="27">
+      <c r="A15" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27">
+      <c r="A16" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27">
+      <c r="A17" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27">
+      <c r="A18" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="27">
+      <c r="A19" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="C19" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="27">
+      <c r="A20" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="C20" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="40.5">
+      <c r="A21" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="B21" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="40.5">
+      <c r="A22" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="B22" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="54">
+      <c r="A23" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="B23" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="B24" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="27">
+      <c r="A25" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="B25" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="27">
+      <c r="A26" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="B26" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="27">
+      <c r="A27" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B27" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="27">
+      <c r="A28" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="27">
+      <c r="A29" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="27">
+      <c r="A30" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="C30" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="27">
+      <c r="A31" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D30" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>720</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D31" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="27">
       <c r="A32" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="54">
+      <c r="A33" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="27">
+      <c r="A34" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="27">
+      <c r="A35" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="27">
+      <c r="A36" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D32" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D33" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="C36" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="27">
+      <c r="A37" s="3" t="s">
         <v>734</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D34" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D35" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D36" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>737</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>215</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D37" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="27">
       <c r="A38" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D38" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="27">
       <c r="A39" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D39" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="27">
       <c r="A40" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>220</v>
+        <v>1010</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D40" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="27">
       <c r="A41" s="3" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>221</v>
+        <v>716</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D41" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="27">
       <c r="A42" s="3" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>219</v>
+        <v>713</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D42" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="27">
       <c r="A43" s="3" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>228</v>
+        <v>715</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D43" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="27">
       <c r="A44" s="3" t="s">
-        <v>744</v>
+        <v>723</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>229</v>
+        <v>714</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D44" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="27">
       <c r="A45" s="3" t="s">
-        <v>745</v>
+        <v>695</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D45" t="s">
-        <v>733</v>
+        <v>1011</v>
       </c>
     </row>
   </sheetData>
@@ -14488,488 +14525,488 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="62.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="62.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="330" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="297">
       <c r="A2" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D3" t="s">
         <v>355</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="27">
+      <c r="A4" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="189">
+      <c r="A5" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="210" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27">
+      <c r="A16" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="27">
+      <c r="A31" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C44" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="27">
+      <c r="A45" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="C44" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>398</v>
-      </c>
       <c r="C45" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="3"/>
       <c r="B46" s="8"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="3"/>
       <c r="B47" s="8"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="3"/>
       <c r="B48" s="8"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2">
       <c r="B73"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2">
       <c r="B74"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2">
       <c r="B77"/>
     </row>
   </sheetData>
@@ -14986,396 +15023,396 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="64.1640625" customWidth="1"/>
-    <col min="2" max="2" width="75.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="51.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="64.125" customWidth="1"/>
+    <col min="2" max="2" width="75.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="51.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="40.5">
       <c r="A4" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="27">
+      <c r="A6" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="C6" s="32" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27">
+      <c r="A7" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="175.5">
+      <c r="A9" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="162">
+      <c r="A10" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27">
+      <c r="A11" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27">
+      <c r="A12" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="67.5">
+      <c r="A13" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="229.5">
+      <c r="A14" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27">
+      <c r="A15" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>904</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="135">
+      <c r="A16" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C16" s="32" t="s">
+        <v>911</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="121.5">
+      <c r="A17" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="165" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C17" s="32" t="s">
+        <v>912</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="81">
+      <c r="A18" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>924</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="81">
+      <c r="A19" s="8" t="s">
+        <v>918</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>919</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>924</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="81">
+      <c r="A20" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>924</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="81">
+      <c r="A21" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>924</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="81">
+      <c r="A22" s="8" t="s">
+        <v>915</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>922</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>924</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="175.5">
+      <c r="A23" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>930</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="175.5">
+      <c r="A24" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>931</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="94.5">
+      <c r="A25" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>935</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="27">
+      <c r="A26" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>937</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="81">
+      <c r="A27" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>940</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="81">
+      <c r="A28" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>939</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="3" customFormat="1">
+      <c r="A29" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="180" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="D29" s="8" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="81">
+      <c r="A30" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C30" s="32" t="s">
+        <v>924</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="81">
+      <c r="A31" s="8" t="s">
+        <v>926</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C31" s="32" t="s">
+        <v>924</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="255" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="D32" s="8" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="8" t="s">
         <v>907</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="B33" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>905</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>910</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="150" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>916</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>917</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>918</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>930</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>924</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>925</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>930</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>923</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>929</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>930</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>922</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>926</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>930</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>921</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>928</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>930</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="195" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>938</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>936</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="195" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>935</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>937</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>941</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>943</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>946</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>945</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>934</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>933</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>930</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>932</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>930</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>912</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>913</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>911</v>
       </c>
     </row>
   </sheetData>
@@ -15389,310 +15426,326 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="51.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27">
       <c r="A3" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="40.5">
       <c r="A8" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="27">
+      <c r="A9" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27">
+      <c r="A10" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27">
+      <c r="A11" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="D11" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="108">
+      <c r="A12" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D12" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27">
+      <c r="A13" s="3" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="120" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="27">
       <c r="A15" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="27">
       <c r="A17" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="D18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="54">
+      <c r="A25" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B25" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>948</v>
+      </c>
+      <c r="B29" t="s">
         <v>949</v>
       </c>
-      <c r="B26" s="8" t="s">
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>951</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>954</v>
-      </c>
-      <c r="B29" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>956</v>
-      </c>
       <c r="B30" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
   </sheetData>
@@ -15709,53 +15762,53 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="38.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="45.875" style="22" customWidth="1"/>
     <col min="3" max="3" width="37.5" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="22"/>
+    <col min="4" max="16384" width="8.875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="18" customFormat="1" ht="13.5">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
     </row>
-    <row r="2" spans="1:5" ht="56" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="56.25">
       <c r="A2" s="20" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" ht="111">
       <c r="A3" s="20" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -15772,149 +15825,149 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="18"/>
+    <col min="1" max="1" width="51.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B3" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="C4" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>491</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>494</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>490</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="18" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>485</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>492</v>
-      </c>
       <c r="C7" s="18" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="108">
       <c r="A9" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="16" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="B9" s="17" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="C9" s="19" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>476</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>469</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>470</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>472</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
-        <v>473</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -15931,438 +15984,438 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="66.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="14.25">
       <c r="A1" s="23" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="23" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="14.25">
       <c r="A5" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25">
+      <c r="A6" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.25">
+      <c r="A7" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="41.25">
+      <c r="A8" s="27" t="s">
         <v>509</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>511</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>513</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="44" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>515</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="14.25">
       <c r="A10" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.25">
+      <c r="A11" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.25">
+      <c r="A12" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.25">
+      <c r="A13" s="24" t="s">
         <v>517</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+    <row r="14" spans="1:2" ht="108">
+      <c r="A14" s="24" t="s">
         <v>519</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B14" s="28" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
-        <v>521</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
-        <v>523</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="112" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
-        <v>525</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15">
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="14.25">
       <c r="A16" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25">
+      <c r="A17" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25">
+      <c r="A18" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25">
+      <c r="A19" s="24" t="s">
         <v>527</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+    <row r="20" spans="1:2" ht="14.25">
+      <c r="A20" s="24" t="s">
         <v>529</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B20" s="24" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+    <row r="21" spans="1:2" ht="14.25">
+      <c r="A21" s="24" t="s">
         <v>531</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B21" s="26" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
+    <row r="22" spans="1:2" ht="14.25">
+      <c r="A22" s="24" t="s">
         <v>533</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B22" s="26" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
+    <row r="23" spans="1:2" ht="14.25">
+      <c r="A23" s="24" t="s">
         <v>535</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B23" s="24" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
+    <row r="24" spans="1:2" ht="14.25">
+      <c r="A24" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B24" s="26" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
+    <row r="25" spans="1:2" ht="14.25">
+      <c r="A25" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B25" s="24" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
-        <v>541</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
-        <v>543</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
-        <v>545</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="15">
       <c r="A26" s="24"/>
       <c r="B26" s="24"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="14.25">
       <c r="A27" s="23" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.25">
       <c r="A28" s="29" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="70" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="67.5">
       <c r="A29" s="24" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.25">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="14.25">
       <c r="A31" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14.25">
+      <c r="A32" s="29" t="s">
+        <v>549</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.25">
+      <c r="A33" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25">
+      <c r="A34" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B34" s="24" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
+    <row r="35" spans="1:2" ht="27">
+      <c r="A35" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B35" s="27" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
+    <row r="36" spans="1:2" ht="14.25">
+      <c r="A36" s="29" t="s">
         <v>557</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B36" s="29" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
+    <row r="37" spans="1:2" ht="14.25">
+      <c r="A37" s="29" t="s">
         <v>559</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B37" s="29" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
+    <row r="38" spans="1:2" ht="14.25">
+      <c r="A38" s="29" t="s">
         <v>561</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B38" s="29" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
+    <row r="39" spans="1:2" ht="14.25">
+      <c r="A39" s="29" t="s">
         <v>563</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B39" s="29" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
+    <row r="40" spans="1:2" ht="14.25">
+      <c r="A40" s="29" t="s">
         <v>565</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B40" s="29" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
+    <row r="41" spans="1:2" ht="14.25">
+      <c r="A41" s="29" t="s">
         <v>567</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B41" s="29" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="29" t="s">
+    <row r="42" spans="1:2" ht="14.25">
+      <c r="A42" s="29" t="s">
         <v>569</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B42" s="29" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="29" t="s">
+    <row r="43" spans="1:2" ht="14.25">
+      <c r="A43" s="29" t="s">
         <v>571</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B43" s="29" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="29" t="s">
-        <v>573</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
-        <v>575</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
-        <v>577</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="14.25">
       <c r="A44" s="29"/>
       <c r="B44" s="30"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="14.25">
       <c r="A45" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="14.25">
+      <c r="A46" s="24" t="s">
+        <v>575</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="14.25">
+      <c r="A47" s="24" t="s">
+        <v>577</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="14.25">
+      <c r="A48" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B48" s="24" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="24" t="s">
+    <row r="49" spans="1:2" ht="14.25">
+      <c r="A49" s="24" t="s">
         <v>581</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B49" s="24" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="24" t="s">
+    <row r="50" spans="1:2" ht="14.25">
+      <c r="A50" s="24" t="s">
         <v>583</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B50" s="24" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="24" t="s">
+    <row r="51" spans="1:2" ht="14.25">
+      <c r="A51" s="24" t="s">
         <v>585</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B51" s="24" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="24" t="s">
+    <row r="52" spans="1:2" ht="14.25">
+      <c r="A52" s="24" t="s">
         <v>587</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B52" s="24" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="24" t="s">
+    <row r="53" spans="1:2" ht="14.25">
+      <c r="A53" s="24" t="s">
         <v>589</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B53" s="24" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="24" t="s">
+    <row r="54" spans="1:2" ht="14.25">
+      <c r="A54" s="29" t="s">
         <v>591</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B54" s="30" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="24" t="s">
+    <row r="55" spans="1:2" ht="14.25">
+      <c r="A55" s="24" t="s">
         <v>593</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B55" s="24" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="24" t="s">
+    <row r="56" spans="1:2" ht="14.25">
+      <c r="A56" s="24" t="s">
         <v>595</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B56" s="24" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="29" t="s">
+    <row r="57" spans="1:2" ht="27">
+      <c r="A57" s="24" t="s">
         <v>597</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B57" s="27" t="s">
         <v>598</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="24" t="s">
-        <v>599</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="24" t="s">
-        <v>601</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="29" x14ac:dyDescent="0.2">
-      <c r="A57" s="24" t="s">
-        <v>603</v>
-      </c>
-      <c r="B57" s="27" t="s">
-        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -16380,408 +16433,408 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
         <v>115</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="27">
+      <c r="B7" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="15">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="15">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="15">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="15">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="15">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="15">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="15">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:2" ht="15">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -16798,92 +16851,92 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="110.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="18"/>
+    <col min="2" max="2" width="110.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="18" t="s">
+        <v>951</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="18" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="18" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="18" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="18" t="s">
+        <v>954</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="18" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="18" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="18" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="18" t="s">
         <v>958</v>
       </c>
-      <c r="B1" s="18" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="18" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="18" t="s">
+    <row r="15" spans="1:2">
+      <c r="B15" s="18" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="18" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="18" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="18" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13" s="18" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" s="18" t="s">
         <v>967</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="18" t="s">
-        <v>974</v>
       </c>
     </row>
   </sheetData>
@@ -16895,103 +16948,114 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>104</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>106</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>107</v>
       </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>108</v>
       </c>
-      <c r="B7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B9" t="s">
+        <v>429</v>
+      </c>
+      <c r="C9" t="s">
         <v>434</v>
       </c>
-      <c r="B9" t="s">
-        <v>435</v>
-      </c>
-      <c r="C9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
-        <v>976</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B11" t="s">
-        <v>439</v>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>997</v>
+      </c>
+      <c r="C10" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="33" t="s">
+        <v>999</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B12" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -17008,430 +17072,430 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="88" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="46.625" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>609</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27">
+      <c r="A6" t="s">
+        <v>610</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C7" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="40.5">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27">
+      <c r="A12" t="s">
+        <v>611</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C12" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27">
+      <c r="A13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="B2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>614</v>
-      </c>
-      <c r="B3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>615</v>
-      </c>
-      <c r="B4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>616</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="C6" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="C7" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>617</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="C12" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>619</v>
-      </c>
       <c r="C13" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="27">
       <c r="A15" s="8" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27">
       <c r="A16" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27">
+      <c r="A17" t="s">
+        <v>626</v>
+      </c>
+      <c r="B17" t="s">
+        <v>624</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27">
+      <c r="A18" t="s">
+        <v>628</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>619</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>618</v>
+      </c>
+      <c r="B20" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>620</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="162">
+      <c r="A22" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="D22" t="s">
         <v>629</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>632</v>
-      </c>
-      <c r="B17" t="s">
-        <v>630</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>634</v>
-      </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>625</v>
-      </c>
-      <c r="B19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>624</v>
-      </c>
-      <c r="B20" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>626</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="180" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="81">
+      <c r="A23" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>785</v>
+      </c>
+      <c r="D23" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="67.5">
+      <c r="A24" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>784</v>
+      </c>
+      <c r="D24" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="27">
+      <c r="A25" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="D25" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="94.5">
+      <c r="A26" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="B26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="D26" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="40.5">
+      <c r="A27" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>791</v>
+      </c>
+      <c r="D27" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="27">
+      <c r="A28" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="B28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>788</v>
+      </c>
+      <c r="D28" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="27">
+      <c r="A29" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>800</v>
+      </c>
+      <c r="D29" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="27">
+      <c r="A30" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="D30" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="27">
+      <c r="A31" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="D31" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="27">
+      <c r="A32" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="D32" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="27">
+      <c r="A33" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="B33" t="s">
         <v>799</v>
       </c>
-      <c r="B22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>801</v>
-      </c>
-      <c r="D22" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="B23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>791</v>
-      </c>
-      <c r="D23" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="C33" s="31" t="s">
+        <v>796</v>
+      </c>
+      <c r="D33" t="s">
         <v>798</v>
       </c>
-      <c r="B24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>790</v>
-      </c>
-      <c r="D24" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    </row>
+    <row r="34" spans="1:4" ht="27">
+      <c r="A34" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>802</v>
+      </c>
+      <c r="D34" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="81">
+      <c r="A35" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="D35" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="27">
+      <c r="A36" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>821</v>
+      </c>
+      <c r="D36" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="81">
+      <c r="A37" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="B37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="D37" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="54">
+      <c r="A38" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="D38" t="s">
         <v>812</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>788</v>
-      </c>
-      <c r="D25" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="B26" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>793</v>
-      </c>
-      <c r="D26" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="B27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>797</v>
-      </c>
-      <c r="D27" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="B28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>794</v>
-      </c>
-      <c r="D28" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="B29" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>806</v>
-      </c>
-      <c r="D29" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="B30" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>815</v>
-      </c>
-      <c r="D30" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="B31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>811</v>
-      </c>
-      <c r="D31" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="B32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>817</v>
-      </c>
-      <c r="D32" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="B33" t="s">
-        <v>805</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>802</v>
-      </c>
-      <c r="D33" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>808</v>
-      </c>
-      <c r="D34" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="B35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>823</v>
-      </c>
-      <c r="D35" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="B36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="D36" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="B37" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>822</v>
-      </c>
-      <c r="D37" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="B38" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>819</v>
-      </c>
-      <c r="D38" t="s">
-        <v>818</v>
       </c>
     </row>
   </sheetData>
@@ -17449,123 +17513,123 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.1640625" customWidth="1"/>
+    <col min="2" max="2" width="54.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.125" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="B5" s="7" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="C6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="C7" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="81">
       <c r="A9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
         <v>144</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="150" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" ht="148.5">
       <c r="A10" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="108">
+      <c r="A11" t="s">
+        <v>780</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="81">
+      <c r="A12" t="s">
+        <v>781</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>786</v>
-      </c>
-      <c r="B11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>787</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="D12" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -17582,27 +17646,27 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="27">
       <c r="A2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
         <v>155</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -17613,218 +17677,229 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="51.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.875" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27">
+      <c r="A3" t="s">
+        <v>757</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="54">
+      <c r="A4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>759</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>760</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>770</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>761</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C8" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C9" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27">
+      <c r="A11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="40.5">
+      <c r="A12" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B12" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="54">
+      <c r="A13" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>764</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C13" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27">
+      <c r="A14" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27">
+      <c r="A15" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D15" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27">
+      <c r="A16" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>776</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B16" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27">
+      <c r="A17" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27">
+      <c r="A18" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="27">
+      <c r="A19" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="B19" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="148.5">
+      <c r="A20" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D17" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D18" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="135" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" t="s">
-        <v>733</v>
+      <c r="B20" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" t="s">
+        <v>727</v>
       </c>
     </row>
   </sheetData>
@@ -17837,528 +17912,528 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="74.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="74.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.625" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="27">
       <c r="A4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27">
+      <c r="A5" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27">
+      <c r="A6" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C6" s="31" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="67.5">
+      <c r="A7" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27">
+      <c r="A8" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="C8" s="31" t="s">
         <v>829</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="121.5">
+      <c r="A9" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="108">
+      <c r="A10" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="229.5">
+      <c r="A11" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="68.25" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="270">
+      <c r="A13" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="67.5">
+      <c r="A14" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="202.5">
+      <c r="A15" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="135">
+      <c r="A16" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="94.5">
+      <c r="A17" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="54">
+      <c r="A18" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D23" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D24" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="27">
+      <c r="A26" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>875</v>
+      </c>
+      <c r="D26" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="67.5">
+      <c r="A27" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>877</v>
+      </c>
+      <c r="D27" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="27">
+      <c r="A28" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>874</v>
+      </c>
+      <c r="D28" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="67.5">
+      <c r="A29" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C29" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="D29" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="54">
+      <c r="A30" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>870</v>
+      </c>
+      <c r="D30" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="81">
+      <c r="A31" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>867</v>
+      </c>
+      <c r="D31" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="108">
+      <c r="A32" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="135" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C32" s="35" t="s">
+        <v>985</v>
+      </c>
+      <c r="D32" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="67.5">
+      <c r="A33" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="105" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="255" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="300" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="195" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="150" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C33" s="31" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D24" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D25" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="D33" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="27">
+      <c r="A34" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>826</v>
+      </c>
+      <c r="D34" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="121.5">
+      <c r="A35" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>987</v>
+      </c>
+      <c r="D35" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="121.5">
+      <c r="A36" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="C26" s="31" t="s">
-        <v>881</v>
-      </c>
-      <c r="D26" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>883</v>
-      </c>
-      <c r="D27" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>880</v>
-      </c>
-      <c r="D28" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>879</v>
-      </c>
-      <c r="D29" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>876</v>
-      </c>
-      <c r="D30" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>873</v>
-      </c>
-      <c r="D31" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C32" s="35" t="s">
+      <c r="C36" s="8" t="s">
+        <v>990</v>
+      </c>
+      <c r="D36" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="27">
+      <c r="A37" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="D32" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>870</v>
-      </c>
-      <c r="D33" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>990</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>832</v>
-      </c>
-      <c r="D34" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="135" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="B37" s="8" t="s">
+        <v>996</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>995</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>998</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>996</v>
-      </c>
-      <c r="D35" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="135" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>999</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>1004</v>
-      </c>
       <c r="D37" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15">
       <c r="A38" s="3"/>
       <c r="B38" s="8"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="15">
       <c r="A39" s="3"/>
       <c r="B39" s="8"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15">
       <c r="A40" s="3"/>
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15">
       <c r="A41" s="3"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15">
       <c r="A42" s="4"/>
       <c r="B42" s="9"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15">
       <c r="A43" s="4"/>
       <c r="B43" s="9"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="15">
       <c r="A44" s="4"/>
       <c r="B44" s="9"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="15">
       <c r="A45" s="4"/>
       <c r="B45" s="9"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="15">
       <c r="A46" s="4"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="15">
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="15">
       <c r="B48"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" ht="15">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" ht="15">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" ht="15">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2">
       <c r="B66"/>
     </row>
   </sheetData>

--- a/总结/前端/JS.xlsx
+++ b/总结/前端/JS.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansong/GitHub/study_web/总结/前端/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="36480" yWindow="-3840" windowWidth="27780" windowHeight="16440" tabRatio="698" activeTab="10"/>
+    <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" tabRatio="698" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="继承方式" sheetId="21" r:id="rId1"/>
@@ -588,10 +593,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>获取函数的接收参数个数。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>获取函数的名称。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -7285,10 +7286,6 @@
       </rPr>
       <t>(testValue)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>非标准 ie无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -12698,6 +12695,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -12731,6 +12729,39 @@
   </si>
   <si>
     <t>ES6 ie无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该函数预期传入的参数个数。
+不包含rest参数和指定默认值的参数。</t>
+    <rPh sb="14" eb="15">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bao'han</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>can'shu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>he</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zhi'ding</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>mo'ren'zhi</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>de</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ie无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -12738,7 +12769,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12825,13 +12856,6 @@
       <name val="DengXian (正文)"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -13289,123 +13313,123 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="46.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="13"/>
+    <col min="1" max="1" width="53.1640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="148.5">
-      <c r="A2" s="14" t="s">
+      <c r="B2" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="B2" s="14" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
+      <c r="B3" s="12"/>
+    </row>
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="B3" s="12"/>
-    </row>
-    <row r="4" spans="1:2" ht="121.5">
-      <c r="A4" s="14" t="s">
+      <c r="B4" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="B4" s="14" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="148.5">
-      <c r="A5" s="14" t="s">
+      <c r="B5" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="B5" s="14" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="15" t="s">
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="1:2" ht="135" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="1:2" ht="121.5">
-      <c r="A7" s="14" t="s">
+      <c r="B7" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="B7" s="14" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="148.5">
-      <c r="A8" s="14" t="s">
+      <c r="B8" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="B8" s="14" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="148.5">
-      <c r="A9" s="14" t="s">
+      <c r="B9" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="B9" s="14" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="15" t="s">
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="1:2" ht="195" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="B10" s="12"/>
-    </row>
-    <row r="11" spans="1:2" ht="175.5">
-      <c r="A11" s="14" t="s">
+      <c r="B11" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="B11" s="14" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="135">
-      <c r="A12" s="14" t="s">
+      <c r="B12" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="B12" s="14" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="94.5">
-      <c r="A13" s="14" t="s">
+      <c r="B13" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:2" ht="256.5">
+    <row r="15" spans="1:2" ht="285" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>459</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -13423,295 +13447,295 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>740</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>742</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>751</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="C5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>744</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="C6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>969</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="C7" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>741</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="40.5">
-      <c r="A4" t="s">
+      <c r="B8" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>743</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>752</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="C5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>967</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="C10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>745</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="C6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>971</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="C7" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>742</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>744</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>969</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="C10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="B11" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C12" t="s">
         <v>332</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="27">
-      <c r="A12" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C12" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="27">
-      <c r="A13" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C14" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C13" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="27">
-      <c r="A14" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C14" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="27">
-      <c r="A15" s="2" t="s">
+      <c r="C15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C15" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="27">
-      <c r="A16" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>338</v>
-      </c>
       <c r="C16" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="216">
+    <row r="18" spans="1:4" ht="240" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="67.5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>752</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>753</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="40.5">
-      <c r="A20" t="s">
+      <c r="B20" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>754</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D20" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>755</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>260</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>265</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>263</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>262</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>261</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>259</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>266</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>264</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="67.5">
-      <c r="A29" t="s">
-        <v>263</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="67.5">
-      <c r="A30" t="s">
-        <v>262</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -13719,7 +13743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -13727,7 +13751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -13735,249 +13759,249 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>270</v>
+      </c>
+      <c r="B36" t="s">
         <v>271</v>
       </c>
-      <c r="B36" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="27">
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>273</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>277</v>
+      </c>
+      <c r="B39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>275</v>
+      </c>
+      <c r="B40" t="s">
         <v>274</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>281</v>
+      </c>
+      <c r="B41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>279</v>
+      </c>
+      <c r="B42" t="s">
         <v>278</v>
       </c>
-      <c r="B39" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>276</v>
-      </c>
-      <c r="B40" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B41" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>280</v>
-      </c>
-      <c r="B42" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>286</v>
+      </c>
+      <c r="B44" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>284</v>
+      </c>
+      <c r="B45" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B44" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>285</v>
-      </c>
-      <c r="B45" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="40.5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>11</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="27">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="54">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>13</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="27">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="B56" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="B58" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="B59" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="B60" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="B61" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>312</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>306</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="B58" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="B59" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="B60" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="B61" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>313</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="27">
-      <c r="A63" t="s">
-        <v>307</v>
-      </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="27">
-      <c r="A64" t="s">
-        <v>306</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="27">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>973</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" t="s">
         <v>977</v>
       </c>
-      <c r="C65" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="27">
+    </row>
+    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>974</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>978</v>
-      </c>
       <c r="C66" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
   </sheetData>
@@ -13991,524 +14015,524 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>680</v>
+      </c>
+      <c r="B8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>681</v>
-      </c>
-      <c r="B8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>682</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="27">
-      <c r="A12" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="27">
-      <c r="A13" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="C14" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="27">
-      <c r="A14" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="C16" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D31" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D32" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D35" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D37" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D39" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D42" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D44" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="27">
-      <c r="A15" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="27">
-      <c r="A16" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="27">
-      <c r="A17" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="27">
-      <c r="A18" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="27">
-      <c r="A19" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="27">
-      <c r="A20" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="40.5">
-      <c r="A21" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="40.5">
-      <c r="A22" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="54">
-      <c r="A23" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" ht="27">
-      <c r="A25" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="27">
-      <c r="A26" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="27">
-      <c r="A27" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="27">
-      <c r="A28" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="27">
-      <c r="A29" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D29" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="27">
-      <c r="A30" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D30" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="27">
-      <c r="A31" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D31" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="27">
-      <c r="A32" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D32" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="54">
-      <c r="A33" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D33" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="27">
-      <c r="A34" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D34" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="27">
-      <c r="A35" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D35" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="27">
-      <c r="A36" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D36" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="27">
-      <c r="A37" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D37" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="27">
-      <c r="A38" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D38" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="27">
-      <c r="A39" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D39" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="27">
-      <c r="A40" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D40" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="27">
-      <c r="A41" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D41" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="27">
-      <c r="A42" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D42" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="27">
-      <c r="A43" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D43" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="27">
-      <c r="A44" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D44" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="27">
-      <c r="A45" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D45" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
   </sheetData>
@@ -14525,488 +14549,488 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.625" customWidth="1"/>
+    <col min="1" max="1" width="62.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="297">
+    <row r="2" spans="1:4" ht="330" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="D3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:4" ht="210" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="189">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C44" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C45" t="s">
         <v>354</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27">
-      <c r="A16" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="27">
-      <c r="A31" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="C44" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="27">
-      <c r="A45" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="C45" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="8"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="8"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="8"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77"/>
     </row>
   </sheetData>
@@ -15023,396 +15047,396 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="64.125" customWidth="1"/>
-    <col min="2" max="2" width="75.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="51.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="64.1640625" customWidth="1"/>
+    <col min="2" max="2" width="75.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="40.5">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="165" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="180" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>902</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="150" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>909</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>910</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>922</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>922</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>915</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>922</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>918</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>922</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>922</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="195" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>928</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="195" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>929</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>933</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="27">
-      <c r="A6" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27">
-      <c r="A7" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="175.5">
-      <c r="A9" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="162">
-      <c r="A10" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="27">
-      <c r="A11" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="27">
-      <c r="A12" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="67.5">
-      <c r="A13" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="229.5">
-      <c r="A14" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="27">
-      <c r="A15" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="C26" s="32" t="s">
+        <v>935</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C27" s="32" t="s">
+        <v>938</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>937</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>926</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>922</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>924</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>922</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
         <v>904</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="B32" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>903</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="135">
-      <c r="A16" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>911</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="121.5">
-      <c r="A17" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>912</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="81">
-      <c r="A18" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>924</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="81">
-      <c r="A19" s="8" t="s">
-        <v>918</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>919</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>924</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="81">
-      <c r="A20" s="8" t="s">
-        <v>917</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>923</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>924</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="81">
-      <c r="A21" s="8" t="s">
-        <v>916</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>920</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>924</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="81">
-      <c r="A22" s="8" t="s">
-        <v>915</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>922</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>924</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="175.5">
-      <c r="A23" s="8" t="s">
-        <v>932</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>930</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="175.5">
-      <c r="A24" s="8" t="s">
-        <v>929</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>931</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="94.5">
-      <c r="A25" s="2" t="s">
-        <v>934</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>935</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="27">
-      <c r="A26" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>937</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="81">
-      <c r="A27" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>940</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="81">
-      <c r="A28" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>939</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="3" customFormat="1">
-      <c r="A29" s="8" t="s">
-        <v>928</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="81">
-      <c r="A30" s="8" t="s">
-        <v>927</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>924</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="81">
-      <c r="A31" s="8" t="s">
-        <v>926</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>924</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="8" t="s">
-        <v>906</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="8" t="s">
-        <v>907</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>905</v>
       </c>
     </row>
   </sheetData>
@@ -15430,133 +15454,133 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="51.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="27">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="40.5">
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="27">
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D9" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D10" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="27">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="D11" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="108">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="120" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="27">
-      <c r="A13" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>39</v>
@@ -15565,17 +15589,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>40</v>
@@ -15584,17 +15608,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="27">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>48</v>
@@ -15603,128 +15627,128 @@
         <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="B21" s="8" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3" t="s">
-        <v>342</v>
-      </c>
       <c r="B22" s="8" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="54">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="B27" s="8" t="s">
+      <c r="B28" s="8" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="B29" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>948</v>
       </c>
-      <c r="B29" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>950</v>
-      </c>
       <c r="B30" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -15732,20 +15756,20 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
   </sheetData>
@@ -15762,53 +15786,53 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" style="22" customWidth="1"/>
     <col min="3" max="3" width="37.5" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="22"/>
+    <col min="4" max="16384" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="18" customFormat="1" ht="13.5">
+    <row r="1" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
     </row>
-    <row r="2" spans="1:5" ht="56.25">
+    <row r="2" spans="1:5" ht="56" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="B2" s="20" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>421</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="111">
-      <c r="A3" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>494</v>
-      </c>
       <c r="D3" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -15825,149 +15849,149 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="45.625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="18"/>
+    <col min="1" max="1" width="51.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="B2" s="17" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="C6" s="18" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>484</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>481</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>479</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>486</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="108">
+    <row r="9" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="C9" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="C9" s="19" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="16" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="18" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
         <v>462</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B12" s="17" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="18" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B13" s="17" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="18" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B14" s="17" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="18" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B15" s="17" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="18" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B16" s="17" t="s">
         <v>475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -15984,438 +16008,438 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>499</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
     </row>
-    <row r="3" spans="1:2" ht="14.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
     </row>
-    <row r="5" spans="1:2" ht="14.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>503</v>
       </c>
-      <c r="B5" s="25" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.25">
-      <c r="A6" s="24" t="s">
+      <c r="B6" s="24" t="s">
         <v>505</v>
       </c>
-      <c r="B6" s="24" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.25">
-      <c r="A7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="B7" s="26" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="41.25">
-      <c r="A8" s="27" t="s">
+      <c r="B8" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
     </row>
-    <row r="10" spans="1:2" ht="14.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>511</v>
       </c>
-      <c r="B10" s="25" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.25">
-      <c r="A11" s="24" t="s">
+      <c r="B11" s="26" t="s">
         <v>513</v>
       </c>
-      <c r="B11" s="26" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.25">
-      <c r="A12" s="24" t="s">
+      <c r="B12" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="B12" s="26" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.25">
-      <c r="A13" s="24" t="s">
+      <c r="B13" s="24" t="s">
         <v>517</v>
       </c>
-      <c r="B13" s="24" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="108">
-      <c r="A14" s="24" t="s">
+      <c r="B14" s="28" t="s">
         <v>519</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
     </row>
-    <row r="16" spans="1:2" ht="14.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>521</v>
       </c>
-      <c r="B16" s="25" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.25">
-      <c r="A17" s="24" t="s">
+      <c r="B17" s="26" t="s">
         <v>523</v>
       </c>
-      <c r="B17" s="26" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.25">
-      <c r="A18" s="24" t="s">
+      <c r="B18" s="26" t="s">
         <v>525</v>
       </c>
-      <c r="B18" s="26" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="24" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.25">
-      <c r="A19" s="24" t="s">
+      <c r="B19" s="24" t="s">
         <v>527</v>
       </c>
-      <c r="B19" s="24" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.25">
-      <c r="A20" s="24" t="s">
+      <c r="B20" s="24" t="s">
         <v>529</v>
       </c>
-      <c r="B20" s="24" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.25">
-      <c r="A21" s="24" t="s">
+      <c r="B21" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="B21" s="26" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.25">
-      <c r="A22" s="24" t="s">
+      <c r="B22" s="26" t="s">
         <v>533</v>
       </c>
-      <c r="B22" s="26" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.25">
-      <c r="A23" s="24" t="s">
+      <c r="B23" s="24" t="s">
         <v>535</v>
       </c>
-      <c r="B23" s="24" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.25">
-      <c r="A24" s="24" t="s">
+      <c r="B24" s="26" t="s">
         <v>537</v>
       </c>
-      <c r="B24" s="26" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.25">
-      <c r="A25" s="24" t="s">
+      <c r="B25" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="B25" s="24" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="24"/>
       <c r="B26" s="24"/>
     </row>
-    <row r="27" spans="1:2" ht="14.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="B27" s="25" t="s">
         <v>541</v>
       </c>
-      <c r="B27" s="25" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="14.25">
-      <c r="A28" s="29" t="s">
+      <c r="B28" s="30" t="s">
         <v>543</v>
       </c>
-      <c r="B28" s="30" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="70" x14ac:dyDescent="0.2">
+      <c r="A29" s="24" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="67.5">
-      <c r="A29" s="24" t="s">
+      <c r="B29" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="B29" s="28" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="14.25">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
     </row>
-    <row r="31" spans="1:2" ht="14.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
+        <v>546</v>
+      </c>
+      <c r="B31" s="25" t="s">
         <v>547</v>
       </c>
-      <c r="B31" s="25" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="29" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="14.25">
-      <c r="A32" s="29" t="s">
+      <c r="B32" s="30" t="s">
         <v>549</v>
       </c>
-      <c r="B32" s="30" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="24" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="14.25">
-      <c r="A33" s="24" t="s">
+      <c r="B33" s="24" t="s">
         <v>551</v>
       </c>
-      <c r="B33" s="24" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="14.25">
-      <c r="A34" s="24" t="s">
+      <c r="B34" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="B34" s="24" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="27">
-      <c r="A35" s="24" t="s">
+      <c r="B35" s="27" t="s">
         <v>555</v>
       </c>
-      <c r="B35" s="27" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="29" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="14.25">
-      <c r="A36" s="29" t="s">
+      <c r="B36" s="29" t="s">
         <v>557</v>
       </c>
-      <c r="B36" s="29" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="29" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="14.25">
-      <c r="A37" s="29" t="s">
+      <c r="B37" s="29" t="s">
         <v>559</v>
       </c>
-      <c r="B37" s="29" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="29" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="14.25">
-      <c r="A38" s="29" t="s">
+      <c r="B38" s="29" t="s">
         <v>561</v>
       </c>
-      <c r="B38" s="29" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="29" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="14.25">
-      <c r="A39" s="29" t="s">
+      <c r="B39" s="29" t="s">
         <v>563</v>
       </c>
-      <c r="B39" s="29" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="29" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="14.25">
-      <c r="A40" s="29" t="s">
+      <c r="B40" s="29" t="s">
         <v>565</v>
       </c>
-      <c r="B40" s="29" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="29" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="14.25">
-      <c r="A41" s="29" t="s">
+      <c r="B41" s="29" t="s">
         <v>567</v>
       </c>
-      <c r="B41" s="29" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="29" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="14.25">
-      <c r="A42" s="29" t="s">
+      <c r="B42" s="29" t="s">
         <v>569</v>
       </c>
-      <c r="B42" s="29" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="29" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="14.25">
-      <c r="A43" s="29" t="s">
+      <c r="B43" s="29" t="s">
         <v>571</v>
       </c>
-      <c r="B43" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="14.25">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="29"/>
       <c r="B44" s="30"/>
     </row>
-    <row r="45" spans="1:2" ht="14.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="s">
+        <v>572</v>
+      </c>
+      <c r="B45" s="25" t="s">
         <v>573</v>
       </c>
-      <c r="B45" s="25" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="24" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="14.25">
-      <c r="A46" s="24" t="s">
+      <c r="B46" s="24" t="s">
         <v>575</v>
       </c>
-      <c r="B46" s="24" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="24" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="14.25">
-      <c r="A47" s="24" t="s">
+      <c r="B47" s="24" t="s">
         <v>577</v>
       </c>
-      <c r="B47" s="24" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="24" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="14.25">
-      <c r="A48" s="24" t="s">
+      <c r="B48" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="B48" s="24" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="24" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="14.25">
-      <c r="A49" s="24" t="s">
+      <c r="B49" s="24" t="s">
         <v>581</v>
       </c>
-      <c r="B49" s="24" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="24" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="14.25">
-      <c r="A50" s="24" t="s">
+      <c r="B50" s="24" t="s">
         <v>583</v>
       </c>
-      <c r="B50" s="24" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="24" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="14.25">
-      <c r="A51" s="24" t="s">
+      <c r="B51" s="24" t="s">
         <v>585</v>
       </c>
-      <c r="B51" s="24" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="24" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="14.25">
-      <c r="A52" s="24" t="s">
+      <c r="B52" s="24" t="s">
         <v>587</v>
       </c>
-      <c r="B52" s="24" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="24" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="14.25">
-      <c r="A53" s="24" t="s">
+      <c r="B53" s="24" t="s">
         <v>589</v>
       </c>
-      <c r="B53" s="24" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="29" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="14.25">
-      <c r="A54" s="29" t="s">
+      <c r="B54" s="30" t="s">
         <v>591</v>
       </c>
-      <c r="B54" s="30" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="24" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="14.25">
-      <c r="A55" s="24" t="s">
+      <c r="B55" s="24" t="s">
         <v>593</v>
       </c>
-      <c r="B55" s="24" t="s">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="24" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="14.25">
-      <c r="A56" s="24" t="s">
+      <c r="B56" s="24" t="s">
         <v>595</v>
       </c>
-      <c r="B56" s="24" t="s">
+    </row>
+    <row r="57" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+      <c r="A57" s="24" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="27">
-      <c r="A57" s="24" t="s">
+      <c r="B57" s="27" t="s">
         <v>597</v>
-      </c>
-      <c r="B57" s="27" t="s">
-        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -16433,33 +16457,33 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -16467,15 +16491,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>63</v>
       </c>
@@ -16483,107 +16507,107 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
@@ -16591,47 +16615,47 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>64</v>
       </c>
@@ -16639,59 +16663,59 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>75</v>
       </c>
@@ -16699,101 +16723,101 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>88</v>
       </c>
@@ -16801,11 +16825,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>42</v>
       </c>
@@ -16813,25 +16837,25 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
         <v>94</v>
@@ -16851,92 +16875,92 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="110.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="18"/>
+    <col min="2" max="2" width="110.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>949</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="18" t="s">
         <v>951</v>
       </c>
-      <c r="B1" s="18" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="18" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="18" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="B2" s="18" t="s">
+      <c r="B9" s="18" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="B3" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="18" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="18" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="18" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="18" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="18" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="18" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="18" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="18" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="18" t="s">
         <v>965</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="18" t="s">
-        <v>954</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="18" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="18" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="18" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="18" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="18" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="18" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="18" t="s">
-        <v>967</v>
       </c>
     </row>
   </sheetData>
@@ -16954,19 +16978,19 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -16974,7 +16998,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -16982,7 +17006,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -16990,7 +17014,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -16998,7 +17022,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -17006,7 +17030,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -17014,48 +17038,48 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="B10" t="s">
+        <v>995</v>
+      </c>
+      <c r="C10" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
+        <v>997</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>431</v>
       </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>428</v>
-      </c>
-      <c r="B9" t="s">
-        <v>429</v>
-      </c>
-      <c r="C9" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B10" t="s">
-        <v>997</v>
-      </c>
-      <c r="C10" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="33" t="s">
-        <v>999</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>432</v>
-      </c>
-      <c r="B12" t="s">
-        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -17072,76 +17096,76 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="88" customWidth="1"/>
-    <col min="3" max="3" width="46.625" customWidth="1"/>
-    <col min="4" max="4" width="23.625" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>607</v>
-      </c>
-      <c r="B2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>608</v>
       </c>
       <c r="B3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C6" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="27">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C7" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>137</v>
       </c>
@@ -17149,10 +17173,10 @@
         <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="40.5">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -17160,342 +17184,342 @@
         <v>140</v>
       </c>
       <c r="C10" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="27">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>610</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>612</v>
-      </c>
       <c r="C12" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="27">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>135</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C13" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="27">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="27">
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>625</v>
+      </c>
+      <c r="B17" t="s">
         <v>623</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="27">
-      <c r="A17" t="s">
-        <v>626</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" s="31" t="s">
         <v>624</v>
       </c>
-      <c r="C17" s="31" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="27">
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B18" t="s">
         <v>95</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B20" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>619</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>620</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="162">
+    <row r="22" spans="1:4" ht="180" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B22" t="s">
         <v>119</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D22" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="81">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B23" t="s">
         <v>120</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D23" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="67.5">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B24" t="s">
         <v>121</v>
       </c>
       <c r="C24" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="D24" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>780</v>
+      </c>
+      <c r="D25" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>784</v>
-      </c>
-      <c r="D24" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="27">
-      <c r="A25" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>782</v>
-      </c>
-      <c r="D25" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="94.5">
-      <c r="A26" s="3" t="s">
-        <v>786</v>
       </c>
       <c r="B26" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D26" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="40.5">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B27" t="s">
         <v>123</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D27" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="27">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B28" t="s">
         <v>125</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D28" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="27">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B29" t="s">
         <v>127</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D29" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="27">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B30" t="s">
         <v>128</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D30" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="27">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B31" t="s">
         <v>129</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D31" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="27">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B32" t="s">
         <v>130</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D32" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="27">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="B33" t="s">
         <v>797</v>
       </c>
-      <c r="B33" t="s">
-        <v>799</v>
-      </c>
       <c r="C33" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="D33" t="s">
         <v>796</v>
       </c>
-      <c r="D33" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="27">
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D34" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="81">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B35" t="s">
         <v>118</v>
       </c>
       <c r="C35" s="31" t="s">
+        <v>815</v>
+      </c>
+      <c r="D35" t="s">
         <v>817</v>
       </c>
-      <c r="D35" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="27">
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B36" t="s">
         <v>124</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D36" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="81">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B37" t="s">
         <v>126</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D37" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="54">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B38" t="s">
         <v>131</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D38" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>
@@ -17509,24 +17533,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.125" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.1640625" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -17534,58 +17558,58 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>774</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="81">
+    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>143</v>
       </c>
@@ -17596,40 +17620,40 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="148.5">
+    <row r="10" spans="1:4" ht="150" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B10" t="s">
         <v>111</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="108">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B11" t="s">
         <v>110</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="81">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="D12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -17646,27 +17670,27 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.875" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
         <v>154</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -17683,223 +17707,223 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.875" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>756</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>757</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>758</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="54">
-      <c r="A4" t="s">
-        <v>758</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>759</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>769</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>760</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>770</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>761</v>
-      </c>
       <c r="B8" s="2" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C8" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C9" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="40.5">
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="54">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="27">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="27">
-      <c r="A15" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27">
-      <c r="A16" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D16" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="27">
-      <c r="A17" s="3" t="s">
+      <c r="B18" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D17" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="27">
-      <c r="A18" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D18" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="27">
-      <c r="A19" s="3" t="s">
+      <c r="D19" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="165" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="148.5">
-      <c r="A20" s="3" t="s">
-        <v>769</v>
-      </c>
       <c r="B20" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D20" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
   </sheetData>
@@ -17916,524 +17940,524 @@
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="74.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.625" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="74.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="27">
-      <c r="A5" s="3" t="s">
+      <c r="C5" s="31" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="255" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="300" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="195" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="150" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D23" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D24" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="D26" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C27" s="31" t="s">
+        <v>875</v>
+      </c>
+      <c r="D27" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>872</v>
+      </c>
+      <c r="D28" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>871</v>
+      </c>
+      <c r="D29" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>868</v>
+      </c>
+      <c r="D30" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>865</v>
+      </c>
+      <c r="D31" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>983</v>
+      </c>
+      <c r="D32" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>862</v>
+      </c>
+      <c r="D33" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="C34" s="31" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="27">
-      <c r="A6" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="67.5">
-      <c r="A7" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="27">
-      <c r="A8" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="121.5">
-      <c r="A9" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="108">
-      <c r="A10" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="229.5">
-      <c r="A11" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="68.25" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="270">
-      <c r="A13" s="8" t="s">
-        <v>841</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="67.5">
-      <c r="A14" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="202.5">
-      <c r="A15" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="135">
-      <c r="A16" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="94.5">
-      <c r="A17" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="54">
-      <c r="A18" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D23" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D24" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D25" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="27">
-      <c r="A26" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>875</v>
-      </c>
-      <c r="D26" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="67.5">
-      <c r="A27" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>877</v>
-      </c>
-      <c r="D27" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="27">
-      <c r="A28" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>874</v>
-      </c>
-      <c r="D28" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="67.5">
-      <c r="A29" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>873</v>
-      </c>
-      <c r="D29" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="54">
-      <c r="A30" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>870</v>
-      </c>
-      <c r="D30" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="81">
-      <c r="A31" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>867</v>
-      </c>
-      <c r="D31" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="108">
-      <c r="A32" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C32" s="35" t="s">
+      <c r="D34" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>985</v>
       </c>
-      <c r="D32" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="67.5">
-      <c r="A33" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>864</v>
-      </c>
-      <c r="D33" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="27">
-      <c r="A34" s="3" t="s">
-        <v>981</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>826</v>
-      </c>
-      <c r="D34" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="121.5">
-      <c r="A35" s="3" t="s">
+      <c r="D35" t="s">
         <v>986</v>
       </c>
-      <c r="B35" s="2" t="s">
+    </row>
+    <row r="36" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="D36" t="s">
         <v>989</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>987</v>
-      </c>
-      <c r="D35" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="121.5">
-      <c r="A36" s="3" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>994</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>990</v>
-      </c>
-      <c r="D36" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="27">
-      <c r="A37" s="3" t="s">
-        <v>994</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>996</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>995</v>
-      </c>
       <c r="D37" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="8"/>
     </row>
-    <row r="39" spans="1:4" ht="15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="8"/>
     </row>
-    <row r="40" spans="1:4" ht="15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:4" ht="15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:4" ht="15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="9"/>
     </row>
-    <row r="43" spans="1:4" ht="15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="9"/>
     </row>
-    <row r="44" spans="1:4" ht="15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="9"/>
     </row>
-    <row r="45" spans="1:4" ht="15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="9"/>
     </row>
-    <row r="46" spans="1:4" ht="15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:4" ht="15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:4" ht="15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B48"/>
     </row>
-    <row r="49" spans="2:2" ht="15">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2" ht="15">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2" ht="15">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66"/>
     </row>
   </sheetData>

--- a/总结/前端/JS.xlsx
+++ b/总结/前端/JS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" tabRatio="698" activeTab="5"/>
+    <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" tabRatio="698" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="继承方式" sheetId="21" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="1016">
   <si>
     <t>typeof(NaN): number</t>
   </si>
@@ -12762,6 +12762,92 @@
   </si>
   <si>
     <t>ie无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Array.prototype.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>includes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(searchElement[, fromIndex])</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断一个数组是否包含一个指定的值，如果包含则返回 true，否则返回false。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>searchElement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+需要查找的元素值。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fromIndex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+可选，从该索引处开始查找 searchElement。如果为负值，则按升序从 array.length + fromIndex 的索引开始搜索。默认为 0。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES7 ie无</t>
+    <rPh sb="6" eb="7">
+      <t>wu</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -15041,10 +15127,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15437,6 +15523,20 @@
       </c>
       <c r="D33" s="8" t="s">
         <v>903</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>1015</v>
       </c>
     </row>
   </sheetData>
@@ -17533,8 +17633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17936,7 +18036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>

--- a/总结/前端/JS.xlsx
+++ b/总结/前端/JS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" tabRatio="698" activeTab="12"/>
+    <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" tabRatio="698" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="继承方式" sheetId="21" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="1027">
   <si>
     <t>typeof(NaN): number</t>
   </si>
@@ -6154,10 +6154,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ES6草案 ie无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Math.</t>
     </r>
@@ -7754,34 +7750,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>getPrototypeOf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(object)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Object.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>getOwnPropertyNames</t>
     </r>
     <r>
@@ -8351,34 +8319,6 @@
       </rPr>
       <t xml:space="preserve">
 该对象新的原型(可以是一个对象或者null).</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Object.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>setPrototypeOf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(obj, prototype)</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -12848,6 +12788,202 @@
     <rPh sb="6" eb="7">
       <t>wu</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6 ie无</t>
+  </si>
+  <si>
+    <t>ES6 ie无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6 ie无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6 ie无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回指定对象所有自身属性（非继承属性）的描述对象。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Object.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>getOwnPropertyDescriptors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(obj)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES8 ie无</t>
+    <rPh sb="6" eb="7">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Object.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setPrototypeOf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(obj, prototype)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Object.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getPrototypeOf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(object)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回一个数组，成员是参数对象自身的（不含继承的）所有可遍历（enumerable）属性的键值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>obj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+被返回可枚举属性值的对象。 </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回一个数组，成员是参数对象自身的（不含继承的）所有可遍历（enumerable）属性的键值对数组。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Object.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(obj)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Object.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>entries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(obj)</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -13547,7 +13683,7 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>325</v>
@@ -13555,7 +13691,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>324</v>
@@ -13563,7 +13699,7 @@
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>326</v>
@@ -13571,10 +13707,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C5" t="s">
         <v>319</v>
@@ -13582,10 +13718,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C6" t="s">
         <v>319</v>
@@ -13593,18 +13729,18 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>966</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="C7" t="s">
         <v>969</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="C7" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>323</v>
@@ -13612,7 +13748,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>327</v>
@@ -13620,10 +13756,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C10" t="s">
         <v>319</v>
@@ -13631,7 +13767,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>331</v>
@@ -13642,7 +13778,7 @@
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>334</v>
@@ -13653,7 +13789,7 @@
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>335</v>
@@ -13664,7 +13800,7 @@
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>333</v>
@@ -13675,7 +13811,7 @@
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>336</v>
@@ -13686,7 +13822,7 @@
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>337</v>
@@ -13713,7 +13849,7 @@
     </row>
     <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>329</v>
@@ -13724,7 +13860,7 @@
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>328</v>
@@ -13738,7 +13874,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
@@ -13993,7 +14129,7 @@
         <v>300</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -14070,24 +14206,24 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C65" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>971</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="C66" t="s">
         <v>974</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="C66" t="s">
-        <v>977</v>
       </c>
     </row>
   </sheetData>
@@ -14101,8 +14237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14385,7 +14521,7 @@
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>223</v>
@@ -14394,12 +14530,12 @@
         <v>203</v>
       </c>
       <c r="D29" t="s">
-        <v>726</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>222</v>
@@ -14408,12 +14544,12 @@
         <v>203</v>
       </c>
       <c r="D30" t="s">
-        <v>726</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>716</v>
@@ -14422,12 +14558,12 @@
         <v>203</v>
       </c>
       <c r="D31" t="s">
-        <v>726</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>717</v>
@@ -14436,12 +14572,12 @@
         <v>203</v>
       </c>
       <c r="D32" t="s">
-        <v>726</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>211</v>
@@ -14450,12 +14586,12 @@
         <v>212</v>
       </c>
       <c r="D33" t="s">
-        <v>726</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>209</v>
@@ -14464,12 +14600,12 @@
         <v>203</v>
       </c>
       <c r="D34" t="s">
-        <v>726</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>210</v>
@@ -14478,12 +14614,12 @@
         <v>206</v>
       </c>
       <c r="D35" t="s">
-        <v>726</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>208</v>
@@ -14492,12 +14628,12 @@
         <v>203</v>
       </c>
       <c r="D36" t="s">
-        <v>726</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>214</v>
@@ -14506,12 +14642,12 @@
         <v>203</v>
       </c>
       <c r="D37" t="s">
-        <v>726</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>215</v>
@@ -14520,12 +14656,12 @@
         <v>203</v>
       </c>
       <c r="D38" t="s">
-        <v>726</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>213</v>
@@ -14534,15 +14670,15 @@
         <v>203</v>
       </c>
       <c r="D39" t="s">
-        <v>726</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>203</v>
@@ -14618,7 +14754,7 @@
         <v>203</v>
       </c>
       <c r="D45" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
@@ -15129,7 +15265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -15148,7 +15284,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>25</v>
@@ -15169,7 +15305,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>405</v>
@@ -15177,26 +15313,26 @@
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>406</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>629</v>
@@ -15204,308 +15340,308 @@
     </row>
     <row r="9" spans="1:4" ht="165" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>407</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="180" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>409</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>410</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="255" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>402</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="150" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>411</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="120" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>412</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C18" s="32" t="s">
         <v>919</v>
       </c>
-      <c r="C18" s="32" t="s">
-        <v>922</v>
-      </c>
       <c r="D18" s="8" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="195" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>417</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="195" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>418</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>401</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>403</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>404</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>413</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>414</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>415</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>416</v>
@@ -15516,27 +15652,27 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>419</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>1012</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>1015</v>
       </c>
     </row>
   </sheetData>
@@ -15616,7 +15752,7 @@
         <v>229</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>230</v>
@@ -15633,7 +15769,7 @@
         <v>231</v>
       </c>
       <c r="D9" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
@@ -15647,7 +15783,7 @@
         <v>231</v>
       </c>
       <c r="D10" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
@@ -15661,7 +15797,7 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="120" x14ac:dyDescent="0.2">
@@ -15675,7 +15811,7 @@
         <v>239</v>
       </c>
       <c r="D12" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
@@ -15802,50 +15938,50 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B29" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B30" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -15866,10 +16002,10 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
   </sheetData>
@@ -16984,83 +17120,83 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" s="18" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="18" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="18" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="18" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="18" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" s="18" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="18" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="18" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -17157,21 +17293,21 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B10" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C10" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -17190,10 +17326,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17386,13 +17522,13 @@
     </row>
     <row r="22" spans="1:4" ht="180" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B22" t="s">
         <v>119</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D22" t="s">
         <v>628</v>
@@ -17400,13 +17536,13 @@
     </row>
     <row r="23" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B23" t="s">
         <v>120</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D23" t="s">
         <v>628</v>
@@ -17414,13 +17550,13 @@
     </row>
     <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B24" t="s">
         <v>121</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D24" t="s">
         <v>628</v>
@@ -17428,13 +17564,13 @@
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D25" t="s">
         <v>628</v>
@@ -17442,13 +17578,13 @@
     </row>
     <row r="26" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B26" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D26" t="s">
         <v>628</v>
@@ -17456,13 +17592,13 @@
     </row>
     <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B27" t="s">
         <v>123</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D27" t="s">
         <v>628</v>
@@ -17470,156 +17606,198 @@
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>787</v>
+        <v>1021</v>
       </c>
       <c r="B28" t="s">
         <v>125</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D28" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B29" t="s">
         <v>127</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D29" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B30" t="s">
         <v>128</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D30" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B31" t="s">
         <v>129</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D31" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B32" t="s">
         <v>130</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D32" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="B33" t="s">
         <v>795</v>
       </c>
-      <c r="B33" t="s">
-        <v>797</v>
-      </c>
       <c r="C33" s="31" t="s">
+        <v>792</v>
+      </c>
+      <c r="D33" t="s">
         <v>794</v>
-      </c>
-      <c r="D33" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D34" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B35" t="s">
         <v>118</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D35" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B36" t="s">
         <v>124</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D36" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B37" t="s">
         <v>126</v>
       </c>
       <c r="C37" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="D37" t="s">
         <v>814</v>
-      </c>
-      <c r="D37" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>812</v>
+        <v>1020</v>
       </c>
       <c r="B38" t="s">
         <v>131</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D38" t="s">
-        <v>810</v>
+        <v>808</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1019</v>
       </c>
     </row>
   </sheetData>
@@ -17660,7 +17838,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>421</v>
@@ -17668,7 +17846,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>146</v>
@@ -17676,15 +17854,15 @@
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>422</v>
@@ -17695,13 +17873,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -17722,7 +17900,7 @@
     </row>
     <row r="10" spans="1:4" ht="150" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B10" t="s">
         <v>111</v>
@@ -17733,7 +17911,7 @@
     </row>
     <row r="11" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B11" t="s">
         <v>110</v>
@@ -17744,7 +17922,7 @@
     </row>
     <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>151</v>
@@ -17803,8 +17981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17822,7 +18000,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>160</v>
@@ -17830,7 +18008,7 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>161</v>
@@ -17838,7 +18016,7 @@
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>601</v>
@@ -17846,7 +18024,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>162</v>
@@ -17854,7 +18032,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>163</v>
@@ -17862,7 +18040,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>159</v>
@@ -17873,10 +18051,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C8" t="s">
         <v>719</v>
@@ -17884,10 +18062,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C9" t="s">
         <v>719</v>
@@ -17911,7 +18089,7 @@
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>600</v>
@@ -17922,10 +18100,10 @@
     </row>
     <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>176</v>
@@ -17933,7 +18111,7 @@
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>178</v>
@@ -17944,7 +18122,7 @@
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>166</v>
@@ -17958,7 +18136,7 @@
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>168</v>
@@ -17967,12 +18145,12 @@
         <v>167</v>
       </c>
       <c r="D16" t="s">
-        <v>726</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>169</v>
@@ -17981,12 +18159,12 @@
         <v>170</v>
       </c>
       <c r="D17" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>171</v>
@@ -17995,12 +18173,12 @@
         <v>172</v>
       </c>
       <c r="D18" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>236</v>
@@ -18009,12 +18187,12 @@
         <v>173</v>
       </c>
       <c r="D19" t="s">
-        <v>726</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="165" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>240</v>
@@ -18023,7 +18201,7 @@
         <v>239</v>
       </c>
       <c r="D20" t="s">
-        <v>726</v>
+        <v>1016</v>
       </c>
     </row>
   </sheetData>
@@ -18036,8 +18214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18055,7 +18233,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>34</v>
@@ -18079,161 +18257,161 @@
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>182</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="135" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="255" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="300" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>330</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="195" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>192</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="150" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>197</v>
@@ -18241,7 +18419,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>198</v>
@@ -18249,7 +18427,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>199</v>
@@ -18257,7 +18435,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>200</v>
@@ -18265,203 +18443,203 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>423</v>
       </c>
       <c r="D23" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>424</v>
       </c>
       <c r="D24" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>201</v>
       </c>
       <c r="D25" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D26" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D27" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D28" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D29" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D30" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>188</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D31" t="s">
-        <v>726</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="120" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D32" t="s">
-        <v>726</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D33" t="s">
-        <v>726</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>982</v>
-      </c>
       <c r="C34" s="31" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D34" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="135" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>987</v>
-      </c>
       <c r="C35" s="8" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="D35" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="135" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="D36" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="D37" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">

--- a/总结/前端/JS.xlsx
+++ b/总结/前端/JS.xlsx
@@ -9,26 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" tabRatio="698" activeTab="4"/>
+    <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" tabRatio="698" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="继承方式" sheetId="21" r:id="rId1"/>
     <sheet name="类型转换" sheetId="4" r:id="rId2"/>
     <sheet name="比较" sheetId="24" r:id="rId3"/>
     <sheet name="进制计算" sheetId="18" r:id="rId4"/>
-    <sheet name="Object" sheetId="17" r:id="rId5"/>
-    <sheet name="Function" sheetId="16" r:id="rId6"/>
-    <sheet name="Boolean" sheetId="6" r:id="rId7"/>
-    <sheet name="Number" sheetId="9" r:id="rId8"/>
-    <sheet name="String" sheetId="10" r:id="rId9"/>
-    <sheet name="RegExp" sheetId="11" r:id="rId10"/>
+    <sheet name="Boolean" sheetId="6" r:id="rId5"/>
+    <sheet name="Number" sheetId="9" r:id="rId6"/>
+    <sheet name="String" sheetId="10" r:id="rId7"/>
+    <sheet name="Object" sheetId="17" r:id="rId8"/>
+    <sheet name="Symbol" sheetId="25" r:id="rId9"/>
+    <sheet name="Function" sheetId="16" r:id="rId10"/>
     <sheet name="Math" sheetId="8" r:id="rId11"/>
     <sheet name="Date" sheetId="7" r:id="rId12"/>
     <sheet name="Array" sheetId="5" r:id="rId13"/>
-    <sheet name="Global" sheetId="12" r:id="rId14"/>
-    <sheet name="JSON" sheetId="20" r:id="rId15"/>
-    <sheet name="Error" sheetId="22" r:id="rId16"/>
-    <sheet name="Data" sheetId="23" r:id="rId17"/>
+    <sheet name="RegExp" sheetId="11" r:id="rId14"/>
+    <sheet name="Global" sheetId="12" r:id="rId15"/>
+    <sheet name="JSON" sheetId="20" r:id="rId16"/>
+    <sheet name="Error" sheetId="22" r:id="rId17"/>
+    <sheet name="Data" sheetId="23" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="1059">
   <si>
     <t>typeof(NaN): number</t>
   </si>
@@ -12984,6 +12985,460 @@
       </rPr>
       <t>(obj)</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+可选的，字符串。symbol的description可以用于调试，但无法访问到symbol本身。 </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建Symbol</t>
+    <rPh sb="0" eb="1">
+      <t>chuang'jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(key)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+一个字符串，作为 symbol 注册表中与某 symbol 关联的键。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Symbol([description])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6 ie无</t>
+    <rPh sb="6" eb="7">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用给定的key搜索现有的symbol，如果找到则返回该symbol。否则将使用给定的key在全局symbol注册表中创建一个新的symbol。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取 symbol 注册表中与某个 symbol 关联的键。</t>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>keyFor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(sym)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sym</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+存储在 symbol 注册表中的某个 symbol</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hasInstance</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>isConcatSpreadable</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个布尔值，用于配置某对象作为Array.prototype.concat()方法的参数时是否展开其数组元素。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个函数，用于判断某对象是否为某构造器的实例。自定义 instanceof  操作符。</t>
+    <rPh sb="2" eb="3">
+      <t>han'shu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zi'ding'yi</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>cao'zuo'fu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>species</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个get函数，用于返回一个构造函数创建派生对象的继承属性。</t>
+    <rPh sb="8" eb="9">
+      <t>yong'yu</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ji'cheng</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>shu'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>match</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regexp[Symbol.match] 等同 String.prototype.match。</t>
+    <rPh sb="21" eb="22">
+      <t>degn'tong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>replace</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regexp[Symbol.replace] 等同 String.prototype.replace。</t>
+    <rPh sb="23" eb="24">
+      <t>degn'tong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regexp[Symbol.search] 等同 String.prototype.search。</t>
+    <rPh sb="22" eb="23">
+      <t>degn'tong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>split</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regexp[Symbol.split] 等同 String.prototype.split。</t>
+    <rPh sb="21" eb="22">
+      <t>degn'tong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>iterator</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个函数，指向该对象的默认遍历器方法。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>toPrimitive</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一个函数，用于表达式自动转换类型时的返回值。
+包含三种模式：
+Number：该场合需要转成数值
+String：该场合需要转成字符串
+Default：该场合可以转成数值，也可以转成字符串
+</t>
+    <rPh sb="5" eb="6">
+      <t>yong'yu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>biao'da'shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zi'd</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhuan'huan</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>fan'hui'zhi</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bao'han</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>san'zhong'm</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>mo'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>toStringTag</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个get函数，用于返回调用Object.prototype.toString方法时，第二个返回字段。</t>
+    <rPh sb="8" eb="9">
+      <t>yong'yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fan'hui</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>diao'yong</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>di'er'ge</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>fan'hui</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>zi'duan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>unscopables</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个get对象。该对象指定了使用with关键字时，哪些属性会被with环境排除。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -13663,573 +14118,134 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="67" customWidth="1"/>
+    <col min="1" max="1" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>738</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>739</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>741</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>750</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>773</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="C5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>743</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>975</v>
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>422</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>966</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>967</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>740</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>742</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="150" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>964</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="C10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>776</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>744</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C11" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>745</v>
+        <v>777</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>778</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C12" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C13" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C15" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C16" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="240" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>751</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>752</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D20" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>753</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>256</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>260</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>258</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>265</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>263</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>262</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>261</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>270</v>
-      </c>
-      <c r="B36" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>249</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>273</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>277</v>
-      </c>
-      <c r="B39" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>275</v>
-      </c>
-      <c r="B40" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>281</v>
-      </c>
-      <c r="B41" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>279</v>
-      </c>
-      <c r="B42" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>286</v>
-      </c>
-      <c r="B44" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>284</v>
-      </c>
-      <c r="B45" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>103</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>292</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>289</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>299</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>297</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="B56" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="B57" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="B58" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="B59" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="B60" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="B61" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>312</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>306</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>305</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>970</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="C65" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>971</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="C66" t="s">
-        <v>974</v>
+        <v>151</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" t="s">
+        <v>630</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14237,8 +14253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15265,7 +15281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -15684,10 +15700,582 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="67" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>739</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>741</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>750</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="C5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>743</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="C6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>966</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="C7" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>740</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>742</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>964</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="C10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>744</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>751</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>752</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>753</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>260</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>265</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>263</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>262</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>270</v>
+      </c>
+      <c r="B36" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>249</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>273</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>277</v>
+      </c>
+      <c r="B39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>275</v>
+      </c>
+      <c r="B40" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>281</v>
+      </c>
+      <c r="B41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>279</v>
+      </c>
+      <c r="B42" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>286</v>
+      </c>
+      <c r="B44" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>284</v>
+      </c>
+      <c r="B45" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>292</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>289</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>299</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>297</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="B56" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="B57" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="B58" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="B59" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="B60" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="B61" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>312</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>306</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>305</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>970</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C65" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>971</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="C66" t="s">
+        <v>974</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16014,7 +16602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -16077,7 +16665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -16236,12 +16824,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17326,622 +17914,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="88" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>606</v>
-      </c>
-      <c r="B2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>607</v>
-      </c>
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>608</v>
-      </c>
-      <c r="B4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>609</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="C6" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="C7" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>610</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="C12" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="C13" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>625</v>
-      </c>
-      <c r="B17" t="s">
-        <v>623</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>627</v>
-      </c>
-      <c r="B18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>618</v>
-      </c>
-      <c r="B19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>617</v>
-      </c>
-      <c r="B20" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>619</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="180" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="B22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>791</v>
-      </c>
-      <c r="D22" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="B23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>782</v>
-      </c>
-      <c r="D23" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="B24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>781</v>
-      </c>
-      <c r="D24" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>779</v>
-      </c>
-      <c r="D25" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="B26" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>784</v>
-      </c>
-      <c r="D26" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="B27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="D27" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>785</v>
-      </c>
-      <c r="D28" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="B29" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>796</v>
-      </c>
-      <c r="D29" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="B30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>805</v>
-      </c>
-      <c r="D30" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="B31" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>801</v>
-      </c>
-      <c r="D31" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="B32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>807</v>
-      </c>
-      <c r="D32" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="B33" t="s">
-        <v>795</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>792</v>
-      </c>
-      <c r="D33" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>798</v>
-      </c>
-      <c r="D34" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="B35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>812</v>
-      </c>
-      <c r="D35" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="B36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>816</v>
-      </c>
-      <c r="D36" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="B37" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>811</v>
-      </c>
-      <c r="D37" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B38" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>809</v>
-      </c>
-      <c r="D38" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>816</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="C6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="150" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>776</v>
-      </c>
-      <c r="B10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>777</v>
-      </c>
-      <c r="B11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>778</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" t="s">
-        <v>630</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17977,7 +17949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -18210,7 +18182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
@@ -18743,4 +18715,682 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>609</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C6" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C7" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>610</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C12" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C13" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>625</v>
+      </c>
+      <c r="B17" t="s">
+        <v>623</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>627</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>618</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>617</v>
+      </c>
+      <c r="B20" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>619</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="180" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>791</v>
+      </c>
+      <c r="D22" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="D23" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>781</v>
+      </c>
+      <c r="D24" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>779</v>
+      </c>
+      <c r="D25" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>784</v>
+      </c>
+      <c r="D26" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="D27" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>785</v>
+      </c>
+      <c r="D28" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>796</v>
+      </c>
+      <c r="D29" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="D30" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="D31" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>807</v>
+      </c>
+      <c r="D32" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="B33" t="s">
+        <v>795</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>792</v>
+      </c>
+      <c r="D33" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>798</v>
+      </c>
+      <c r="D34" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>812</v>
+      </c>
+      <c r="D35" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="B36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="D36" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="B37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="D37" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="D38" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43" style="18" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="52.6640625" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/总结/前端/JS.xlsx
+++ b/总结/前端/JS.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansong/GitHub/study_web/总结/前端/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" tabRatio="698" activeTab="8"/>
+    <workbookView xWindow="28800" yWindow="-10335" windowWidth="20730" windowHeight="11760" tabRatio="698" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="继承方式" sheetId="21" r:id="rId1"/>
@@ -12115,7 +12110,1243 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>红色部分默认贪婪模式(尽可能多的匹配)，加?转为懒惰模式(能不匹配就不匹配)，加+转为独占模式(尽可能多的匹配，但是不回溯)</t>
+    <r>
+      <t>RegExp.prototype.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flags</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读。一个字符串，由当前正则表达式对象的标志组成。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RegExp.prototype.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dotAll</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读。dotAll模式，即点（dot）代表一切字符。用s代表。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读。是否开启粘滞匹配。用y代表。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(?&lt;=y)x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(?&lt;!y)x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有当 x 前面紧跟着 y 时，才匹配 x，但是匹配结果不包括那些字符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有当 x 前面不是紧跟着 y 时，才匹配 x，但是匹配结果不包括那些字符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读。Unicode模式，正确识别四字节的UTF-16字符。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>String.prototype.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(index)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未实现</t>
+    <rPh sb="0" eb="1">
+      <t>wei'shi'xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用指定的unicode参数返回一个字符串，而非对象。识别大于0xFFFF的码点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回字符串中指定位置的字符。识别大于0xFFFF的码点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+四种Unicode正规形式“NFC”、“NFD”、“NFKC”,以及“NFKD”其中的一个,默认值为“NFC”。
+NFC——标准等价合成。
+NFD——标准等价分解。
+NFKC——兼容等价合成。
+NFKD——兼容等价分解。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>String.prototype.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>padStart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(targetLength [, padString])</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>targetLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+当前字符串需要填充到的目标长度。如果这个数值小于当前字符串的长度，则返回当前字符串本身。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>padString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+填充字符串。如果字符串太长，使填充后的字符串长度超过了目标长度，则只保留最左侧的部分，其他部分会被截断。此参数的缺省值为 " "（U+0020）。 </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES2017 ie无</t>
+    <rPh sb="9" eb="10">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用另一个字符串填充当前字符串(重复，如果需要的话)，以便产生的字符串达到给定的长度。填充从当前字符串的开始(左侧)应用的。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>targetLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+当前字符串需要填充到的目标长度。如果这个数值小于当前字符串的长度，则返回当前字符串本身。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>padString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+填充字符串。如果字符串太长，使填充后的字符串长度超过了目标长度，则只保留最左侧的部分，其他部分会被截断。此参数的缺省值为 " "（U+0021）。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>ES2018 ie无</t>
+    <rPh sb="9" eb="10">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用一个字符串填充当前字符串（如果需要的话则重复填充），返回填充后达到指定长度的字符串。从当前字符串的末尾（右侧）开始填充。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>String.prototype.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>padEnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(targetLength [, padString])</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>String.prototype.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>matchAll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(regex)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>regex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+正则表达式</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>zheng'ze</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>biao'da'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回的是一个遍历器，一次性取出所有匹配结果。</t>
+    <rPh sb="19" eb="20">
+      <t>jie'guo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0表示八进制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0o711</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0o表示八进制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0711</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历类数组的属性值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Number.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MIN_SAFE_INTEGER</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript 中最小的安全整数 (-(253 - 1))。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript 中最大的安全整数 (253 - 1)。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算 JavaScript 字符串，并把它作为脚本代码来执行。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 ** 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数运算，2的3次方。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回 x 的双曲正弦值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6 ie无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该函数预期传入的参数个数。
+不包含rest参数和指定默认值的参数。</t>
+    <rPh sb="14" eb="15">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bao'han</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>can'shu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>he</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zhi'ding</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>mo'ren'zhi</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>de</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ie无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Array.prototype.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>includes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(searchElement[, fromIndex])</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断一个数组是否包含一个指定的值，如果包含则返回 true，否则返回false。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>searchElement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+需要查找的元素值。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fromIndex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+可选，从该索引处开始查找 searchElement。如果为负值，则按升序从 array.length + fromIndex 的索引开始搜索。默认为 0。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES7 ie无</t>
+    <rPh sb="6" eb="7">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6 ie无</t>
+  </si>
+  <si>
+    <t>ES6 ie无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6 ie无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6 ie无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回指定对象所有自身属性（非继承属性）的描述对象。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Object.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>getOwnPropertyDescriptors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(obj)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES8 ie无</t>
+    <rPh sb="6" eb="7">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Object.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setPrototypeOf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(obj, prototype)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Object.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getPrototypeOf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(object)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回一个数组，成员是参数对象自身的（不含继承的）所有可遍历（enumerable）属性的键值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>obj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+被返回可枚举属性值的对象。 </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回一个数组，成员是参数对象自身的（不含继承的）所有可遍历（enumerable）属性的键值对数组。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Object.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(obj)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Object.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>entries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(obj)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+可选的，字符串。symbol的description可以用于调试，但无法访问到symbol本身。 </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建Symbol</t>
+    <rPh sb="0" eb="1">
+      <t>chuang'jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(key)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+一个字符串，作为 symbol 注册表中与某 symbol 关联的键。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Symbol([description])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6 ie无</t>
+    <rPh sb="6" eb="7">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用给定的key搜索现有的symbol，如果找到则返回该symbol。否则将使用给定的key在全局symbol注册表中创建一个新的symbol。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取 symbol 注册表中与某个 symbol 关联的键。</t>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>keyFor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(sym)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sym</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+存储在 symbol 注册表中的某个 symbol</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hasInstance</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>isConcatSpreadable</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个布尔值，用于配置某对象作为Array.prototype.concat()方法的参数时是否展开其数组元素。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个函数，用于判断某对象是否为某构造器的实例。自定义 instanceof  操作符。</t>
+    <rPh sb="2" eb="3">
+      <t>han'shu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zi'ding'yi</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>cao'zuo'fu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>species</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个get函数，用于返回一个构造函数创建派生对象的继承属性。</t>
+    <rPh sb="8" eb="9">
+      <t>yong'yu</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ji'cheng</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>shu'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>match</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regexp[Symbol.match] 等同 String.prototype.match。</t>
+    <rPh sb="21" eb="22">
+      <t>degn'tong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>replace</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regexp[Symbol.replace] 等同 String.prototype.replace。</t>
+    <rPh sb="23" eb="24">
+      <t>degn'tong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regexp[Symbol.search] 等同 String.prototype.search。</t>
+    <rPh sb="22" eb="23">
+      <t>degn'tong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>split</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regexp[Symbol.split] 等同 String.prototype.split。</t>
+    <rPh sb="21" eb="22">
+      <t>degn'tong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>iterator</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个函数，指向该对象的默认遍历器方法。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>toPrimitive</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一个函数，用于表达式自动转换类型时的返回值。
+包含三种模式：
+Number：该场合需要转成数值
+String：该场合需要转成字符串
+Default：该场合可以转成数值，也可以转成字符串
+</t>
+    <rPh sb="5" eb="6">
+      <t>yong'yu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>biao'da'shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zi'd</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhuan'huan</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>fan'hui'zhi</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bao'han</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>san'zhong'm</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>mo'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>toStringTag</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个get函数，用于返回调用Object.prototype.toString方法时，第二个返回字段。</t>
+    <rPh sb="8" eb="9">
+      <t>yong'yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fan'hui</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>diao'yong</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>di'er'ge</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>fan'hui</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>zi'duan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Symbol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>unscopables</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个get对象。该对象指定了使用with关键字时，哪些属性会被with环境排除。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色部分默认贪婪模式(尽可能多的匹配)，加?转为懒惰模式(能不匹配就不匹配)</t>
     <rPh sb="0" eb="1">
       <t>hong'se</t>
     </rPh>
@@ -12205,1248 +13436,12 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <r>
-      <t>RegExp.prototype.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>flags</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读。一个字符串，由当前正则表达式对象的标志组成。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>RegExp.prototype.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dotAll</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读。dotAll模式，即点（dot）代表一切字符。用s代表。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读。是否开启粘滞匹配。用y代表。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未实现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(?&lt;=y)x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(?&lt;!y)x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有当 x 前面紧跟着 y 时，才匹配 x，但是匹配结果不包括那些字符</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有当 x 前面不是紧跟着 y 时，才匹配 x，但是匹配结果不包括那些字符</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未实现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读。Unicode模式，正确识别四字节的UTF-16字符。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>String.prototype.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>at</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(index)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未实现</t>
-    <rPh sb="0" eb="1">
-      <t>wei'shi'xian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用指定的unicode参数返回一个字符串，而非对象。识别大于0xFFFF的码点。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回字符串中指定位置的字符。识别大于0xFFFF的码点。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>form</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-四种Unicode正规形式“NFC”、“NFD”、“NFKC”,以及“NFKD”其中的一个,默认值为“NFC”。
-NFC——标准等价合成。
-NFD——标准等价分解。
-NFKC——兼容等价合成。
-NFKD——兼容等价分解。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>String.prototype.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>padStart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(targetLength [, padString])</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>targetLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-当前字符串需要填充到的目标长度。如果这个数值小于当前字符串的长度，则返回当前字符串本身。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>padString</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-填充字符串。如果字符串太长，使填充后的字符串长度超过了目标长度，则只保留最左侧的部分，其他部分会被截断。此参数的缺省值为 " "（U+0020）。 </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES2017 ie无</t>
-    <rPh sb="9" eb="10">
-      <t>wu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用另一个字符串填充当前字符串(重复，如果需要的话)，以便产生的字符串达到给定的长度。填充从当前字符串的开始(左侧)应用的。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>targetLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-当前字符串需要填充到的目标长度。如果这个数值小于当前字符串的长度，则返回当前字符串本身。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>padString</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-填充字符串。如果字符串太长，使填充后的字符串长度超过了目标长度，则只保留最左侧的部分，其他部分会被截断。此参数的缺省值为 " "（U+0021）。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>ES2018 ie无</t>
-    <rPh sb="9" eb="10">
-      <t>wu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用一个字符串填充当前字符串（如果需要的话则重复填充），返回填充后达到指定长度的字符串。从当前字符串的末尾（右侧）开始填充。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>String.prototype.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>padEnd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(targetLength [, padString])</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>String.prototype.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>matchAll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(regex)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>regex</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-正则表达式</t>
-    </r>
-    <rPh sb="6" eb="7">
-      <t>zheng'ze</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>biao'da'shi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回的是一个遍历器，一次性取出所有匹配结果。</t>
-    <rPh sb="19" eb="20">
-      <t>jie'guo</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0表示八进制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>废弃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0o711</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0o表示八进制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0711</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>遍历类数组的属性值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>废弃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Number.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MIN_SAFE_INTEGER</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JavaScript 中最小的安全整数 (-(253 - 1))。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JavaScript 中最大的安全整数 (253 - 1)。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算 JavaScript 字符串，并把它作为脚本代码来执行。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 ** 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>指数运算，2的3次方。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回 x 的双曲正弦值。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES6 ie无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>该函数预期传入的参数个数。
-不包含rest参数和指定默认值的参数。</t>
-    <rPh sb="14" eb="15">
-      <t>bu</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>bao'han</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>can'shu</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>he</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>zhi'ding</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>mo'ren'zhi</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>de</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>can'shu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ie无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Array.prototype.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>includes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(searchElement[, fromIndex])</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断一个数组是否包含一个指定的值，如果包含则返回 true，否则返回false。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>searchElement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-需要查找的元素值。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>fromIndex</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-可选，从该索引处开始查找 searchElement。如果为负值，则按升序从 array.length + fromIndex 的索引开始搜索。默认为 0。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES7 ie无</t>
-    <rPh sb="6" eb="7">
-      <t>wu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES6 ie无</t>
-  </si>
-  <si>
-    <t>ES6 ie无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES6 ie无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES6 ie无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回指定对象所有自身属性（非继承属性）的描述对象。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Object.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>getOwnPropertyDescriptors</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(obj)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES8 ie无</t>
-    <rPh sb="6" eb="7">
-      <t>wu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Object.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>setPrototypeOf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(obj, prototype)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Object.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getPrototypeOf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(object)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回一个数组，成员是参数对象自身的（不含继承的）所有可遍历（enumerable）属性的键值。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>obj</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-被返回可枚举属性值的对象。 </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回一个数组，成员是参数对象自身的（不含继承的）所有可遍历（enumerable）属性的键值对数组。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Object.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>values</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(obj)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Object.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>entries</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(obj)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>description</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-可选的，字符串。symbol的description可以用于调试，但无法访问到symbol本身。 </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建Symbol</t>
-    <rPh sb="0" eb="1">
-      <t>chuang'jian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Symbol.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>for</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(key)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-一个字符串，作为 symbol 注册表中与某 symbol 关联的键。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Symbol([description])</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES6 ie无</t>
-    <rPh sb="6" eb="7">
-      <t>wu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用给定的key搜索现有的symbol，如果找到则返回该symbol。否则将使用给定的key在全局symbol注册表中创建一个新的symbol。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取 symbol 注册表中与某个 symbol 关联的键。</t>
-  </si>
-  <si>
-    <r>
-      <t>Symbol.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>keyFor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(sym)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>sym</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-存储在 symbol 注册表中的某个 symbol</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Symbol.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>hasInstance</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Symbol.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>isConcatSpreadable</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个布尔值，用于配置某对象作为Array.prototype.concat()方法的参数时是否展开其数组元素。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个函数，用于判断某对象是否为某构造器的实例。自定义 instanceof  操作符。</t>
-    <rPh sb="2" eb="3">
-      <t>han'shu</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>zi'ding'yi</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>cao'zuo'fu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Symbol.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>species</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个get函数，用于返回一个构造函数创建派生对象的继承属性。</t>
-    <rPh sb="8" eb="9">
-      <t>yong'yu</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ji'cheng</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>shu'xing</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Symbol.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>match</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>regexp[Symbol.match] 等同 String.prototype.match。</t>
-    <rPh sb="21" eb="22">
-      <t>degn'tong</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Symbol.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>replace</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>regexp[Symbol.replace] 等同 String.prototype.replace。</t>
-    <rPh sb="23" eb="24">
-      <t>degn'tong</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Symbol.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>search</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>regexp[Symbol.search] 等同 String.prototype.search。</t>
-    <rPh sb="22" eb="23">
-      <t>degn'tong</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Symbol.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>split</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>regexp[Symbol.split] 等同 String.prototype.split。</t>
-    <rPh sb="21" eb="22">
-      <t>degn'tong</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Symbol.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>iterator</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个函数，指向该对象的默认遍历器方法。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Symbol.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>toPrimitive</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">一个函数，用于表达式自动转换类型时的返回值。
-包含三种模式：
-Number：该场合需要转成数值
-String：该场合需要转成字符串
-Default：该场合可以转成数值，也可以转成字符串
-</t>
-    <rPh sb="5" eb="6">
-      <t>yong'yu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>biao'da'shi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>zi'd</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zhuan'huan</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>de</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>fan'hui'zhi</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>bao'han</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>san'zhong'm</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>mo'shi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Symbol.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>toStringTag</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个get函数，用于返回调用Object.prototype.toString方法时，第二个返回字段。</t>
-    <rPh sb="8" eb="9">
-      <t>yong'yu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>fan'hui</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>diao'yong</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>di'er'ge</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>fan'hui</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>zi'duan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Symbol.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>unscopables</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个get对象。该对象指定了使用with关键字时，哪些属性会被with环境排除。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13990,14 +13985,14 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="53.1640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="13"/>
+    <col min="1" max="1" width="53.125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="46.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
         <v>435</v>
       </c>
@@ -14005,7 +14000,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="148.5">
       <c r="A2" s="14" t="s">
         <v>437</v>
       </c>
@@ -14013,13 +14008,13 @@
         <v>438</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="11" t="s">
         <v>439</v>
       </c>
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="121.5">
       <c r="A4" s="14" t="s">
         <v>440</v>
       </c>
@@ -14027,7 +14022,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="148.5">
       <c r="A5" s="14" t="s">
         <v>442</v>
       </c>
@@ -14035,13 +14030,13 @@
         <v>443</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="15" t="s">
         <v>444</v>
       </c>
       <c r="B6" s="12"/>
     </row>
-    <row r="7" spans="1:2" ht="135" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="121.5">
       <c r="A7" s="14" t="s">
         <v>445</v>
       </c>
@@ -14049,7 +14044,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="148.5">
       <c r="A8" s="14" t="s">
         <v>447</v>
       </c>
@@ -14057,7 +14052,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="148.5">
       <c r="A9" s="14" t="s">
         <v>449</v>
       </c>
@@ -14065,13 +14060,13 @@
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="15" t="s">
         <v>451</v>
       </c>
       <c r="B10" s="12"/>
     </row>
-    <row r="11" spans="1:2" ht="195" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="175.5">
       <c r="A11" s="14" t="s">
         <v>452</v>
       </c>
@@ -14079,7 +14074,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="135">
       <c r="A12" s="14" t="s">
         <v>454</v>
       </c>
@@ -14087,7 +14082,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="94.5">
       <c r="A13" s="14" t="s">
         <v>456</v>
       </c>
@@ -14095,13 +14090,13 @@
         <v>457</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:2" ht="285" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="256.5">
       <c r="A15" s="14" t="s">
         <v>458</v>
       </c>
@@ -14124,20 +14119,20 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.1640625" customWidth="1"/>
+    <col min="2" max="2" width="54.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.125" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -14145,7 +14140,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>771</v>
       </c>
@@ -14153,7 +14148,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>772</v>
       </c>
@@ -14161,15 +14156,15 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="27">
       <c r="A5" s="3" t="s">
         <v>773</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>774</v>
       </c>
@@ -14180,7 +14175,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>775</v>
       </c>
@@ -14188,15 +14183,15 @@
         <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="81">
       <c r="A9" s="3" t="s">
         <v>143</v>
       </c>
@@ -14207,7 +14202,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="150" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="148.5">
       <c r="A10" t="s">
         <v>776</v>
       </c>
@@ -14218,7 +14213,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="108">
       <c r="A11" t="s">
         <v>777</v>
       </c>
@@ -14229,7 +14224,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="81">
       <c r="A12" t="s">
         <v>778</v>
       </c>
@@ -14257,20 +14252,20 @@
       <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>674</v>
       </c>
@@ -14278,7 +14273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>675</v>
       </c>
@@ -14286,7 +14281,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>678</v>
       </c>
@@ -14294,7 +14289,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>676</v>
       </c>
@@ -14302,7 +14297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>677</v>
       </c>
@@ -14310,7 +14305,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>679</v>
       </c>
@@ -14318,7 +14313,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>680</v>
       </c>
@@ -14326,7 +14321,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>681</v>
       </c>
@@ -14334,12 +14329,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="27">
       <c r="A11" s="3" t="s">
         <v>682</v>
       </c>
@@ -14350,7 +14345,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="27">
       <c r="A12" s="3" t="s">
         <v>683</v>
       </c>
@@ -14361,7 +14356,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="27">
       <c r="A13" s="3" t="s">
         <v>684</v>
       </c>
@@ -14372,7 +14367,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="27">
       <c r="A14" s="3" t="s">
         <v>685</v>
       </c>
@@ -14383,7 +14378,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="27">
       <c r="A15" s="3" t="s">
         <v>695</v>
       </c>
@@ -14394,7 +14389,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="27">
       <c r="A16" s="3" t="s">
         <v>696</v>
       </c>
@@ -14405,7 +14400,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="27">
       <c r="A17" s="3" t="s">
         <v>697</v>
       </c>
@@ -14416,7 +14411,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="27">
       <c r="A18" s="3" t="s">
         <v>698</v>
       </c>
@@ -14427,7 +14422,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="27">
       <c r="A19" s="3" t="s">
         <v>699</v>
       </c>
@@ -14438,7 +14433,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="27">
       <c r="A20" s="3" t="s">
         <v>700</v>
       </c>
@@ -14449,7 +14444,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="40.5">
       <c r="A21" s="3" t="s">
         <v>701</v>
       </c>
@@ -14460,7 +14455,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="40.5">
       <c r="A22" s="3" t="s">
         <v>702</v>
       </c>
@@ -14471,7 +14466,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="54">
       <c r="A23" s="3" t="s">
         <v>703</v>
       </c>
@@ -14482,7 +14477,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
         <v>704</v>
       </c>
@@ -14491,7 +14486,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="27">
       <c r="A25" s="3" t="s">
         <v>705</v>
       </c>
@@ -14502,7 +14497,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="27">
       <c r="A26" s="3" t="s">
         <v>706</v>
       </c>
@@ -14513,7 +14508,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="27">
       <c r="A27" s="3" t="s">
         <v>707</v>
       </c>
@@ -14524,7 +14519,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="27">
       <c r="A28" s="3" t="s">
         <v>718</v>
       </c>
@@ -14535,7 +14530,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="27">
       <c r="A29" s="3" t="s">
         <v>737</v>
       </c>
@@ -14546,10 +14541,10 @@
         <v>203</v>
       </c>
       <c r="D29" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="27">
       <c r="A30" s="3" t="s">
         <v>735</v>
       </c>
@@ -14560,10 +14555,10 @@
         <v>203</v>
       </c>
       <c r="D30" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="27">
       <c r="A31" s="3" t="s">
         <v>726</v>
       </c>
@@ -14574,10 +14569,10 @@
         <v>203</v>
       </c>
       <c r="D31" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="27">
       <c r="A32" s="3" t="s">
         <v>727</v>
       </c>
@@ -14588,10 +14583,10 @@
         <v>203</v>
       </c>
       <c r="D32" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="54">
       <c r="A33" s="3" t="s">
         <v>731</v>
       </c>
@@ -14602,10 +14597,10 @@
         <v>212</v>
       </c>
       <c r="D33" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="27">
       <c r="A34" s="3" t="s">
         <v>729</v>
       </c>
@@ -14616,10 +14611,10 @@
         <v>203</v>
       </c>
       <c r="D34" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="27">
       <c r="A35" s="3" t="s">
         <v>730</v>
       </c>
@@ -14630,10 +14625,10 @@
         <v>206</v>
       </c>
       <c r="D35" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="27">
       <c r="A36" s="3" t="s">
         <v>728</v>
       </c>
@@ -14644,10 +14639,10 @@
         <v>203</v>
       </c>
       <c r="D36" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="27">
       <c r="A37" s="3" t="s">
         <v>732</v>
       </c>
@@ -14658,10 +14653,10 @@
         <v>203</v>
       </c>
       <c r="D37" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="27">
       <c r="A38" s="3" t="s">
         <v>733</v>
       </c>
@@ -14672,10 +14667,10 @@
         <v>203</v>
       </c>
       <c r="D38" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="27">
       <c r="A39" s="3" t="s">
         <v>734</v>
       </c>
@@ -14686,15 +14681,15 @@
         <v>203</v>
       </c>
       <c r="D39" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="27">
       <c r="A40" s="3" t="s">
         <v>736</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>203</v>
@@ -14703,7 +14698,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="27">
       <c r="A41" s="3" t="s">
         <v>724</v>
       </c>
@@ -14717,7 +14712,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="27">
       <c r="A42" s="3" t="s">
         <v>721</v>
       </c>
@@ -14731,7 +14726,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="27">
       <c r="A43" s="3" t="s">
         <v>723</v>
       </c>
@@ -14745,7 +14740,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="27">
       <c r="A44" s="3" t="s">
         <v>722</v>
       </c>
@@ -14759,7 +14754,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="27">
       <c r="A45" s="3" t="s">
         <v>694</v>
       </c>
@@ -14770,7 +14765,7 @@
         <v>203</v>
       </c>
       <c r="D45" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
   </sheetData>
@@ -14787,19 +14782,19 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="62.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="62.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="330" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="297">
       <c r="A2" s="8" t="s">
         <v>348</v>
       </c>
@@ -14810,7 +14805,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>647</v>
       </c>
@@ -14821,7 +14816,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="27">
       <c r="A4" s="3" t="s">
         <v>648</v>
       </c>
@@ -14832,7 +14827,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="210" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="189">
       <c r="A5" s="3" t="s">
         <v>649</v>
       </c>
@@ -14843,7 +14838,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>650</v>
       </c>
@@ -14852,7 +14847,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>651</v>
       </c>
@@ -14861,7 +14856,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
         <v>652</v>
       </c>
@@ -14870,7 +14865,7 @@
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
         <v>653</v>
       </c>
@@ -14878,7 +14873,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>654</v>
       </c>
@@ -14886,7 +14881,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
         <v>655</v>
       </c>
@@ -14894,7 +14889,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
         <v>656</v>
       </c>
@@ -14902,7 +14897,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
         <v>657</v>
       </c>
@@ -14910,7 +14905,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
         <v>658</v>
       </c>
@@ -14918,7 +14913,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
         <v>659</v>
       </c>
@@ -14926,7 +14921,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="27">
       <c r="A16" s="6" t="s">
         <v>660</v>
       </c>
@@ -14934,7 +14929,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
         <v>661</v>
       </c>
@@ -14942,7 +14937,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
         <v>662</v>
       </c>
@@ -14950,7 +14945,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
         <v>663</v>
       </c>
@@ -14958,7 +14953,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
         <v>664</v>
       </c>
@@ -14966,7 +14961,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
         <v>665</v>
       </c>
@@ -14974,7 +14969,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
         <v>666</v>
       </c>
@@ -14982,7 +14977,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
         <v>667</v>
       </c>
@@ -14990,7 +14985,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>668</v>
       </c>
@@ -14998,7 +14993,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>669</v>
       </c>
@@ -15006,7 +15001,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>670</v>
       </c>
@@ -15014,7 +15009,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>671</v>
       </c>
@@ -15022,7 +15017,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>672</v>
       </c>
@@ -15030,7 +15025,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
         <v>673</v>
       </c>
@@ -15038,7 +15033,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
         <v>646</v>
       </c>
@@ -15046,7 +15041,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="27">
       <c r="A31" s="6" t="s">
         <v>645</v>
       </c>
@@ -15054,7 +15049,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="6" t="s">
         <v>644</v>
       </c>
@@ -15062,7 +15057,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="6" t="s">
         <v>643</v>
       </c>
@@ -15070,7 +15065,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="6" t="s">
         <v>642</v>
       </c>
@@ -15078,7 +15073,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
         <v>641</v>
       </c>
@@ -15086,7 +15081,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="6" t="s">
         <v>640</v>
       </c>
@@ -15094,7 +15089,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="6" t="s">
         <v>639</v>
       </c>
@@ -15102,7 +15097,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
         <v>638</v>
       </c>
@@ -15110,7 +15105,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
         <v>637</v>
       </c>
@@ -15118,7 +15113,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
         <v>636</v>
       </c>
@@ -15126,7 +15121,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
         <v>635</v>
       </c>
@@ -15134,7 +15129,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
         <v>634</v>
       </c>
@@ -15142,7 +15137,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
         <v>633</v>
       </c>
@@ -15150,7 +15145,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
         <v>632</v>
       </c>
@@ -15161,7 +15156,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="27">
       <c r="A45" s="3" t="s">
         <v>631</v>
       </c>
@@ -15172,103 +15167,103 @@
         <v>354</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="3"/>
       <c r="B46" s="8"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="3"/>
       <c r="B47" s="8"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="3"/>
       <c r="B48" s="8"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2">
       <c r="B73"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2">
       <c r="B74"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2">
       <c r="B77"/>
     </row>
   </sheetData>
@@ -15285,20 +15280,20 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="64.1640625" customWidth="1"/>
-    <col min="2" max="2" width="75.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="51.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="64.125" customWidth="1"/>
+    <col min="2" max="2" width="75.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="51.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>876</v>
       </c>
@@ -15306,12 +15301,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="40.5">
       <c r="A4" s="2" t="s">
         <v>399</v>
       </c>
@@ -15319,7 +15314,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>877</v>
       </c>
@@ -15327,7 +15322,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="27">
       <c r="A6" s="2" t="s">
         <v>878</v>
       </c>
@@ -15338,7 +15333,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="27">
       <c r="A7" s="2" t="s">
         <v>881</v>
       </c>
@@ -15346,7 +15341,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>882</v>
       </c>
@@ -15354,7 +15349,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="165" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="175.5">
       <c r="A9" s="2" t="s">
         <v>887</v>
       </c>
@@ -15365,7 +15360,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="180" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="162">
       <c r="A10" s="2" t="s">
         <v>889</v>
       </c>
@@ -15376,7 +15371,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="27">
       <c r="A11" s="2" t="s">
         <v>883</v>
       </c>
@@ -15387,7 +15382,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="27">
       <c r="A12" s="2" t="s">
         <v>885</v>
       </c>
@@ -15398,7 +15393,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="67.5">
       <c r="A13" s="2" t="s">
         <v>893</v>
       </c>
@@ -15409,7 +15404,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="229.5">
       <c r="A14" s="2" t="s">
         <v>895</v>
       </c>
@@ -15420,7 +15415,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="27">
       <c r="A15" s="2" t="s">
         <v>897</v>
       </c>
@@ -15434,7 +15429,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="150" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="135">
       <c r="A16" s="2" t="s">
         <v>905</v>
       </c>
@@ -15448,7 +15443,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="121.5">
       <c r="A17" s="2" t="s">
         <v>908</v>
       </c>
@@ -15462,7 +15457,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="81">
       <c r="A18" s="2" t="s">
         <v>909</v>
       </c>
@@ -15476,7 +15471,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="81">
       <c r="A19" s="8" t="s">
         <v>913</v>
       </c>
@@ -15490,7 +15485,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="81">
       <c r="A20" s="8" t="s">
         <v>912</v>
       </c>
@@ -15504,7 +15499,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="81">
       <c r="A21" s="8" t="s">
         <v>911</v>
       </c>
@@ -15518,7 +15513,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="81">
       <c r="A22" s="8" t="s">
         <v>910</v>
       </c>
@@ -15532,7 +15527,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="195" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="175.5">
       <c r="A23" s="8" t="s">
         <v>927</v>
       </c>
@@ -15546,7 +15541,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="195" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="175.5">
       <c r="A24" s="8" t="s">
         <v>924</v>
       </c>
@@ -15560,7 +15555,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="94.5">
       <c r="A25" s="2" t="s">
         <v>929</v>
       </c>
@@ -15574,7 +15569,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="27">
       <c r="A26" s="2" t="s">
         <v>931</v>
       </c>
@@ -15588,7 +15583,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="81">
       <c r="A27" s="2" t="s">
         <v>936</v>
       </c>
@@ -15602,7 +15597,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="81">
       <c r="A28" s="2" t="s">
         <v>933</v>
       </c>
@@ -15616,7 +15611,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" s="3" customFormat="1">
       <c r="A29" s="8" t="s">
         <v>923</v>
       </c>
@@ -15627,7 +15622,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="81">
       <c r="A30" s="8" t="s">
         <v>922</v>
       </c>
@@ -15641,7 +15636,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="81">
       <c r="A31" s="8" t="s">
         <v>921</v>
       </c>
@@ -15655,7 +15650,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
         <v>901</v>
       </c>
@@ -15666,7 +15661,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
         <v>902</v>
       </c>
@@ -15677,18 +15672,18 @@
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="81">
       <c r="A34" s="8" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="8" t="s">
         <v>1010</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>1011</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>1012</v>
       </c>
     </row>
   </sheetData>
@@ -15702,23 +15697,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="27">
       <c r="A2" t="s">
         <v>738</v>
       </c>
@@ -15726,7 +15721,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>739</v>
       </c>
@@ -15734,7 +15729,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="40.5">
       <c r="A4" t="s">
         <v>741</v>
       </c>
@@ -15742,40 +15737,40 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>750</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>743</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C6" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>965</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>967</v>
-      </c>
       <c r="C7" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>740</v>
       </c>
@@ -15783,7 +15778,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>742</v>
       </c>
@@ -15791,18 +15786,18 @@
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>963</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>964</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>965</v>
       </c>
       <c r="C10" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>744</v>
       </c>
@@ -15813,7 +15808,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="27">
       <c r="A12" s="2" t="s">
         <v>745</v>
       </c>
@@ -15824,7 +15819,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="27">
       <c r="A13" s="2" t="s">
         <v>746</v>
       </c>
@@ -15835,7 +15830,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="27">
       <c r="A14" s="2" t="s">
         <v>747</v>
       </c>
@@ -15846,7 +15841,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="27">
       <c r="A15" s="2" t="s">
         <v>748</v>
       </c>
@@ -15857,7 +15852,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="27">
       <c r="A16" s="2" t="s">
         <v>749</v>
       </c>
@@ -15868,12 +15863,12 @@
         <v>332</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="216">
       <c r="A18" s="8" t="s">
         <v>247</v>
       </c>
@@ -15884,7 +15879,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="67.5">
       <c r="A19" t="s">
         <v>751</v>
       </c>
@@ -15895,7 +15890,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="40.5">
       <c r="A20" t="s">
         <v>752</v>
       </c>
@@ -15909,7 +15904,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>753</v>
       </c>
@@ -15917,12 +15912,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>256</v>
       </c>
@@ -15930,7 +15925,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>260</v>
       </c>
@@ -15938,7 +15933,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>258</v>
       </c>
@@ -15946,7 +15941,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>265</v>
       </c>
@@ -15954,7 +15949,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>263</v>
       </c>
@@ -15962,7 +15957,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="67.5">
       <c r="A29" t="s">
         <v>262</v>
       </c>
@@ -15970,7 +15965,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="67.5">
       <c r="A30" t="s">
         <v>261</v>
       </c>
@@ -15978,7 +15973,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -15986,7 +15981,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -15994,7 +15989,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -16002,7 +15997,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -16010,7 +16005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -16018,7 +16013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>270</v>
       </c>
@@ -16026,7 +16021,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>249</v>
       </c>
@@ -16034,7 +16029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="27">
       <c r="A38" t="s">
         <v>273</v>
       </c>
@@ -16042,7 +16037,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>277</v>
       </c>
@@ -16050,7 +16045,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>275</v>
       </c>
@@ -16058,7 +16053,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>281</v>
       </c>
@@ -16066,7 +16061,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>279</v>
       </c>
@@ -16074,12 +16069,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>286</v>
       </c>
@@ -16087,7 +16082,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>284</v>
       </c>
@@ -16095,12 +16090,12 @@
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -16108,7 +16103,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>292</v>
       </c>
@@ -16116,7 +16111,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="40.5">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -16124,7 +16119,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>289</v>
       </c>
@@ -16132,12 +16127,12 @@
         <v>288</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="27">
       <c r="A52" t="s">
         <v>299</v>
       </c>
@@ -16145,7 +16140,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>297</v>
       </c>
@@ -16153,7 +16148,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="54">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -16161,15 +16156,15 @@
         <v>295</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="27">
       <c r="A55" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="34" t="s">
         <v>302</v>
       </c>
@@ -16177,7 +16172,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" s="34" t="s">
         <v>301</v>
       </c>
@@ -16185,7 +16180,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" s="34" t="s">
         <v>308</v>
       </c>
@@ -16193,7 +16188,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" s="34" t="s">
         <v>318</v>
       </c>
@@ -16201,7 +16196,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" s="34" t="s">
         <v>316</v>
       </c>
@@ -16209,7 +16204,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" s="34" t="s">
         <v>314</v>
       </c>
@@ -16217,7 +16212,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>312</v>
       </c>
@@ -16225,7 +16220,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="27">
       <c r="A63" t="s">
         <v>306</v>
       </c>
@@ -16233,7 +16228,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="27">
       <c r="A64" t="s">
         <v>305</v>
       </c>
@@ -16241,26 +16236,26 @@
         <v>310</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="27">
       <c r="A65" t="s">
+        <v>969</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="C65" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="27">
+      <c r="A66" t="s">
         <v>970</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>972</v>
       </c>
-      <c r="C65" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>971</v>
-      </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" t="s">
         <v>973</v>
-      </c>
-      <c r="C66" t="s">
-        <v>974</v>
       </c>
     </row>
   </sheetData>
@@ -16278,19 +16273,19 @@
       <selection activeCell="A9" sqref="A9:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="51.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -16298,7 +16293,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="27">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -16306,7 +16301,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -16314,7 +16309,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
@@ -16322,7 +16317,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>225</v>
       </c>
@@ -16330,23 +16325,23 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="40.5">
       <c r="A8" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="27">
       <c r="A9" s="3" t="s">
         <v>232</v>
       </c>
@@ -16357,10 +16352,10 @@
         <v>231</v>
       </c>
       <c r="D9" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27">
       <c r="A10" s="3" t="s">
         <v>233</v>
       </c>
@@ -16371,10 +16366,10 @@
         <v>231</v>
       </c>
       <c r="D10" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27">
       <c r="A11" s="3" t="s">
         <v>234</v>
       </c>
@@ -16385,10 +16380,10 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="108">
       <c r="A12" s="3" t="s">
         <v>238</v>
       </c>
@@ -16399,10 +16394,10 @@
         <v>239</v>
       </c>
       <c r="D12" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27">
       <c r="A13" s="3" t="s">
         <v>241</v>
       </c>
@@ -16413,7 +16408,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
         <v>242</v>
       </c>
@@ -16421,7 +16416,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="27">
       <c r="A15" s="3" t="s">
         <v>243</v>
       </c>
@@ -16432,7 +16427,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
         <v>244</v>
       </c>
@@ -16440,7 +16435,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="27">
       <c r="A17" s="3" t="s">
         <v>245</v>
       </c>
@@ -16454,7 +16449,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
         <v>246</v>
       </c>
@@ -16465,7 +16460,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
         <v>253</v>
       </c>
@@ -16473,7 +16468,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
         <v>251</v>
       </c>
@@ -16481,7 +16476,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
         <v>339</v>
       </c>
@@ -16489,7 +16484,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
         <v>341</v>
       </c>
@@ -16497,7 +16492,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
         <v>344</v>
       </c>
@@ -16505,7 +16500,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
         <v>489</v>
       </c>
@@ -16513,7 +16508,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="54">
       <c r="A25" s="3" t="s">
         <v>345</v>
       </c>
@@ -16524,7 +16519,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
         <v>938</v>
       </c>
@@ -16532,7 +16527,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
         <v>937</v>
       </c>
@@ -16540,7 +16535,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
         <v>940</v>
       </c>
@@ -16548,7 +16543,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>943</v>
       </c>
@@ -16556,23 +16551,23 @@
         <v>944</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>945</v>
       </c>
       <c r="B30" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>1003</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -16580,7 +16575,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>224</v>
       </c>
@@ -16588,7 +16583,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>903</v>
       </c>
@@ -16610,22 +16605,22 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="38.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="45.875" style="22" customWidth="1"/>
     <col min="3" max="3" width="37.5" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="22"/>
+    <col min="4" max="16384" width="8.875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="18" customFormat="1" ht="13.5">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
     </row>
-    <row r="2" spans="1:5" ht="56" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="56.25">
       <c r="A2" s="20" t="s">
         <v>496</v>
       </c>
@@ -16642,7 +16637,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="111">
       <c r="A3" s="20" t="s">
         <v>494</v>
       </c>
@@ -16673,20 +16668,20 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="18"/>
+    <col min="1" max="1" width="51.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
         <v>476</v>
       </c>
@@ -16694,7 +16689,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="18" t="s">
         <v>482</v>
       </c>
@@ -16705,7 +16700,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="18" t="s">
         <v>487</v>
       </c>
@@ -16716,7 +16711,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="18" t="s">
         <v>481</v>
       </c>
@@ -16727,7 +16722,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="18" t="s">
         <v>479</v>
       </c>
@@ -16738,7 +16733,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="18" t="s">
         <v>486</v>
       </c>
@@ -16749,12 +16744,12 @@
         <v>488</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="108">
       <c r="A9" s="18" t="s">
         <v>467</v>
       </c>
@@ -16765,12 +16760,12 @@
         <v>469</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="16" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="18" t="s">
         <v>461</v>
       </c>
@@ -16778,7 +16773,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="18" t="s">
         <v>462</v>
       </c>
@@ -16786,7 +16781,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="18" t="s">
         <v>463</v>
       </c>
@@ -16794,7 +16789,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="18" t="s">
         <v>464</v>
       </c>
@@ -16802,7 +16797,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="18" t="s">
         <v>465</v>
       </c>
@@ -16810,7 +16805,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="18" t="s">
         <v>466</v>
       </c>
@@ -16832,13 +16827,13 @@
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="66.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="14.25">
       <c r="A1" s="23" t="s">
         <v>498</v>
       </c>
@@ -16846,11 +16841,11 @@
         <v>499</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="23" t="s">
         <v>500</v>
       </c>
@@ -16858,11 +16853,11 @@
         <v>501</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="14.25">
       <c r="A5" s="23" t="s">
         <v>502</v>
       </c>
@@ -16870,7 +16865,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="14.25">
       <c r="A6" s="24" t="s">
         <v>504</v>
       </c>
@@ -16878,7 +16873,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="14.25">
       <c r="A7" s="24" t="s">
         <v>506</v>
       </c>
@@ -16886,7 +16881,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="41.25">
       <c r="A8" s="27" t="s">
         <v>508</v>
       </c>
@@ -16894,11 +16889,11 @@
         <v>509</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="14.25">
       <c r="A10" s="23" t="s">
         <v>510</v>
       </c>
@@ -16906,7 +16901,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="14.25">
       <c r="A11" s="24" t="s">
         <v>512</v>
       </c>
@@ -16914,7 +16909,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="14.25">
       <c r="A12" s="24" t="s">
         <v>514</v>
       </c>
@@ -16922,7 +16917,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="14.25">
       <c r="A13" s="24" t="s">
         <v>516</v>
       </c>
@@ -16930,7 +16925,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="108">
       <c r="A14" s="24" t="s">
         <v>518</v>
       </c>
@@ -16938,11 +16933,11 @@
         <v>519</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="14.25">
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="14.25">
       <c r="A16" s="23" t="s">
         <v>520</v>
       </c>
@@ -16950,7 +16945,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="14.25">
       <c r="A17" s="24" t="s">
         <v>522</v>
       </c>
@@ -16958,7 +16953,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="14.25">
       <c r="A18" s="24" t="s">
         <v>524</v>
       </c>
@@ -16966,7 +16961,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="14.25">
       <c r="A19" s="24" t="s">
         <v>526</v>
       </c>
@@ -16974,7 +16969,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="14.25">
       <c r="A20" s="24" t="s">
         <v>528</v>
       </c>
@@ -16982,7 +16977,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="14.25">
       <c r="A21" s="24" t="s">
         <v>530</v>
       </c>
@@ -16990,7 +16985,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="14.25">
       <c r="A22" s="24" t="s">
         <v>532</v>
       </c>
@@ -16998,7 +16993,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="14.25">
       <c r="A23" s="24" t="s">
         <v>534</v>
       </c>
@@ -17006,7 +17001,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="14.25">
       <c r="A24" s="24" t="s">
         <v>536</v>
       </c>
@@ -17014,7 +17009,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="14.25">
       <c r="A25" s="24" t="s">
         <v>538</v>
       </c>
@@ -17022,11 +17017,11 @@
         <v>539</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="14.25">
       <c r="A26" s="24"/>
       <c r="B26" s="24"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="14.25">
       <c r="A27" s="23" t="s">
         <v>540</v>
       </c>
@@ -17034,7 +17029,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="14.25">
       <c r="A28" s="29" t="s">
         <v>542</v>
       </c>
@@ -17042,7 +17037,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="70" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="67.5">
       <c r="A29" s="24" t="s">
         <v>544</v>
       </c>
@@ -17050,11 +17045,11 @@
         <v>545</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="14.25">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="14.25">
       <c r="A31" s="23" t="s">
         <v>546</v>
       </c>
@@ -17062,7 +17057,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="14.25">
       <c r="A32" s="29" t="s">
         <v>548</v>
       </c>
@@ -17070,7 +17065,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="14.25">
       <c r="A33" s="24" t="s">
         <v>550</v>
       </c>
@@ -17078,7 +17073,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="14.25">
       <c r="A34" s="24" t="s">
         <v>552</v>
       </c>
@@ -17086,7 +17081,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="27">
       <c r="A35" s="24" t="s">
         <v>554</v>
       </c>
@@ -17094,7 +17089,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="14.25">
       <c r="A36" s="29" t="s">
         <v>556</v>
       </c>
@@ -17102,7 +17097,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="14.25">
       <c r="A37" s="29" t="s">
         <v>558</v>
       </c>
@@ -17110,7 +17105,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="14.25">
       <c r="A38" s="29" t="s">
         <v>560</v>
       </c>
@@ -17118,7 +17113,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="14.25">
       <c r="A39" s="29" t="s">
         <v>562</v>
       </c>
@@ -17126,7 +17121,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="14.25">
       <c r="A40" s="29" t="s">
         <v>564</v>
       </c>
@@ -17134,7 +17129,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="14.25">
       <c r="A41" s="29" t="s">
         <v>566</v>
       </c>
@@ -17142,7 +17137,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="14.25">
       <c r="A42" s="29" t="s">
         <v>568</v>
       </c>
@@ -17150,7 +17145,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="14.25">
       <c r="A43" s="29" t="s">
         <v>570</v>
       </c>
@@ -17158,11 +17153,11 @@
         <v>571</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="14.25">
       <c r="A44" s="29"/>
       <c r="B44" s="30"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="14.25">
       <c r="A45" s="23" t="s">
         <v>572</v>
       </c>
@@ -17170,7 +17165,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="14.25">
       <c r="A46" s="24" t="s">
         <v>574</v>
       </c>
@@ -17178,7 +17173,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="14.25">
       <c r="A47" s="24" t="s">
         <v>576</v>
       </c>
@@ -17186,7 +17181,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="14.25">
       <c r="A48" s="24" t="s">
         <v>578</v>
       </c>
@@ -17194,7 +17189,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="14.25">
       <c r="A49" s="24" t="s">
         <v>580</v>
       </c>
@@ -17202,7 +17197,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="14.25">
       <c r="A50" s="24" t="s">
         <v>582</v>
       </c>
@@ -17210,7 +17205,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="14.25">
       <c r="A51" s="24" t="s">
         <v>584</v>
       </c>
@@ -17218,7 +17213,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="14.25">
       <c r="A52" s="24" t="s">
         <v>586</v>
       </c>
@@ -17226,7 +17221,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="14.25">
       <c r="A53" s="24" t="s">
         <v>588</v>
       </c>
@@ -17234,7 +17229,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="14.25">
       <c r="A54" s="29" t="s">
         <v>590</v>
       </c>
@@ -17242,7 +17237,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="14.25">
       <c r="A55" s="24" t="s">
         <v>592</v>
       </c>
@@ -17250,7 +17245,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="14.25">
       <c r="A56" s="24" t="s">
         <v>594</v>
       </c>
@@ -17258,7 +17253,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="27">
       <c r="A57" s="24" t="s">
         <v>596</v>
       </c>
@@ -17277,37 +17272,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -17315,15 +17310,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="27">
       <c r="B7" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>63</v>
       </c>
@@ -17331,107 +17326,107 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
@@ -17439,47 +17434,47 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
         <v>64</v>
       </c>
@@ -17487,59 +17482,59 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
         <v>75</v>
       </c>
@@ -17547,53 +17542,53 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>41</v>
       </c>
@@ -17601,47 +17596,47 @@
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
         <v>88</v>
       </c>
@@ -17649,11 +17644,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" s="3" t="s">
         <v>42</v>
       </c>
@@ -17661,25 +17656,25 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
         <v>94</v>
@@ -17696,17 +17691,17 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="110.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="18"/>
+    <col min="2" max="2" width="110.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="18" t="s">
         <v>946</v>
       </c>
@@ -17714,37 +17709,37 @@
         <v>947</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="B2" s="18" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="B6" s="18" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="B7" s="18" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="18" t="s">
         <v>949</v>
       </c>
@@ -17752,37 +17747,37 @@
         <v>950</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="B10" s="18" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="B11" s="18" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="B12" s="18" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="B13" s="18" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="B14" s="18" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="B15" s="18" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" s="18" t="s">
         <v>962</v>
       </c>
@@ -17799,22 +17794,22 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>429</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -17822,7 +17817,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -17830,7 +17825,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -17838,7 +17833,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -17846,7 +17841,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -17854,7 +17849,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -17862,13 +17857,13 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>430</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>427</v>
       </c>
@@ -17879,26 +17874,26 @@
         <v>433</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B10" t="s">
+        <v>991</v>
+      </c>
+      <c r="C10" t="s">
         <v>992</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="33" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="B11" s="2" t="s">
         <v>994</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>431</v>
       </c>
@@ -17920,19 +17915,19 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="27">
       <c r="A2" s="3" t="s">
         <v>153</v>
       </c>
@@ -17953,24 +17948,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="51.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.875" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>754</v>
       </c>
@@ -17978,7 +17973,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="27">
       <c r="A3" t="s">
         <v>755</v>
       </c>
@@ -17986,7 +17981,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="54">
       <c r="A4" t="s">
         <v>756</v>
       </c>
@@ -17994,7 +17989,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>757</v>
       </c>
@@ -18002,7 +17997,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>758</v>
       </c>
@@ -18010,7 +18005,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>768</v>
       </c>
@@ -18021,34 +18016,34 @@
         <v>719</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>759</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C8" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>998</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>999</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1000</v>
       </c>
       <c r="C9" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="27">
       <c r="A11" s="3" t="s">
         <v>156</v>
       </c>
@@ -18059,7 +18054,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="40.5">
       <c r="A12" s="3" t="s">
         <v>760</v>
       </c>
@@ -18070,7 +18065,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="54">
       <c r="A13" s="3" t="s">
         <v>762</v>
       </c>
@@ -18081,7 +18076,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="27">
       <c r="A14" s="3" t="s">
         <v>763</v>
       </c>
@@ -18092,7 +18087,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="27">
       <c r="A15" s="3" t="s">
         <v>769</v>
       </c>
@@ -18106,7 +18101,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="27">
       <c r="A16" s="3" t="s">
         <v>764</v>
       </c>
@@ -18117,10 +18112,10 @@
         <v>167</v>
       </c>
       <c r="D16" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27">
       <c r="A17" s="3" t="s">
         <v>765</v>
       </c>
@@ -18134,7 +18129,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="27">
       <c r="A18" s="3" t="s">
         <v>770</v>
       </c>
@@ -18148,7 +18143,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="27">
       <c r="A19" s="3" t="s">
         <v>766</v>
       </c>
@@ -18159,10 +18154,10 @@
         <v>173</v>
       </c>
       <c r="D19" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="165" x14ac:dyDescent="0.2">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="148.5">
       <c r="A20" s="3" t="s">
         <v>767</v>
       </c>
@@ -18173,7 +18168,7 @@
         <v>239</v>
       </c>
       <c r="D20" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
   </sheetData>
@@ -18190,20 +18185,20 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="74.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="74.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.625" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>817</v>
       </c>
@@ -18211,12 +18206,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="27">
       <c r="A4" s="3" t="s">
         <v>179</v>
       </c>
@@ -18227,7 +18222,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="27">
       <c r="A5" s="3" t="s">
         <v>818</v>
       </c>
@@ -18238,7 +18233,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="27">
       <c r="A6" s="3" t="s">
         <v>820</v>
       </c>
@@ -18249,7 +18244,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="67.5">
       <c r="A7" s="3" t="s">
         <v>823</v>
       </c>
@@ -18260,7 +18255,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="27">
       <c r="A8" s="3" t="s">
         <v>825</v>
       </c>
@@ -18271,7 +18266,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="121.5">
       <c r="A9" s="3" t="s">
         <v>827</v>
       </c>
@@ -18282,7 +18277,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="108">
       <c r="A10" s="3" t="s">
         <v>828</v>
       </c>
@@ -18293,7 +18288,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="255" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="229.5">
       <c r="A11" s="3" t="s">
         <v>831</v>
       </c>
@@ -18304,7 +18299,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="68.25" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>834</v>
       </c>
@@ -18315,7 +18310,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="300" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="270">
       <c r="A13" s="8" t="s">
         <v>836</v>
       </c>
@@ -18326,7 +18321,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="67.5">
       <c r="A14" s="3" t="s">
         <v>840</v>
       </c>
@@ -18337,7 +18332,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="195" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="202.5">
       <c r="A15" s="3" t="s">
         <v>842</v>
       </c>
@@ -18348,7 +18343,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="150" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="135">
       <c r="A16" s="3" t="s">
         <v>843</v>
       </c>
@@ -18359,7 +18354,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="94.5">
       <c r="A17" s="3" t="s">
         <v>845</v>
       </c>
@@ -18370,7 +18365,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="54">
       <c r="A18" s="3" t="s">
         <v>847</v>
       </c>
@@ -18381,7 +18376,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
         <v>849</v>
       </c>
@@ -18389,7 +18384,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
         <v>850</v>
       </c>
@@ -18397,7 +18392,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
         <v>851</v>
       </c>
@@ -18405,7 +18400,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
         <v>852</v>
       </c>
@@ -18413,7 +18408,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
         <v>854</v>
       </c>
@@ -18424,7 +18419,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
         <v>855</v>
       </c>
@@ -18435,7 +18430,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
         <v>857</v>
       </c>
@@ -18446,12 +18441,12 @@
         <v>856</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="27">
       <c r="A26" s="3" t="s">
         <v>871</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>870</v>
@@ -18460,7 +18455,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="67.5">
       <c r="A27" s="3" t="s">
         <v>875</v>
       </c>
@@ -18474,7 +18469,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="27">
       <c r="A28" s="3" t="s">
         <v>873</v>
       </c>
@@ -18488,7 +18483,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="67.5">
       <c r="A29" s="3" t="s">
         <v>867</v>
       </c>
@@ -18502,7 +18497,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="54">
       <c r="A30" s="3" t="s">
         <v>864</v>
       </c>
@@ -18516,7 +18511,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="81">
       <c r="A31" s="3" t="s">
         <v>861</v>
       </c>
@@ -18527,10 +18522,10 @@
         <v>862</v>
       </c>
       <c r="D31" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="108">
       <c r="A32" s="3" t="s">
         <v>860</v>
       </c>
@@ -18538,13 +18533,13 @@
         <v>191</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D32" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="67.5">
       <c r="A33" s="3" t="s">
         <v>858</v>
       </c>
@@ -18555,159 +18550,159 @@
         <v>859</v>
       </c>
       <c r="D33" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="27">
       <c r="A34" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C34" s="31" t="s">
         <v>821</v>
       </c>
       <c r="D34" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="121.5">
       <c r="A35" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>981</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="D35" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="121.5">
+      <c r="A36" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>984</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>982</v>
-      </c>
-      <c r="D35" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="135" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="D36" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="27">
+      <c r="A37" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>985</v>
-      </c>
-      <c r="D36" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="B37" s="8" t="s">
+        <v>990</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>991</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>990</v>
-      </c>
       <c r="D37" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="3"/>
       <c r="B38" s="8"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="3"/>
       <c r="B39" s="8"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="3"/>
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="3"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="4"/>
       <c r="B42" s="9"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="4"/>
       <c r="B43" s="9"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="4"/>
       <c r="B44" s="9"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="4"/>
       <c r="B45" s="9"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="4"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="B48"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2">
       <c r="B66"/>
     </row>
   </sheetData>
@@ -18725,20 +18720,20 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="88" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="46.625" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>606</v>
       </c>
@@ -18746,7 +18741,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>607</v>
       </c>
@@ -18754,7 +18749,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>608</v>
       </c>
@@ -18762,12 +18757,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="27">
       <c r="A6" t="s">
         <v>609</v>
       </c>
@@ -18778,7 +18773,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="27">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -18789,12 +18784,12 @@
         <v>628</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="27">
       <c r="A9" t="s">
         <v>137</v>
       </c>
@@ -18805,7 +18800,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="40.5">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -18816,12 +18811,12 @@
         <v>628</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="27">
       <c r="A12" t="s">
         <v>610</v>
       </c>
@@ -18832,7 +18827,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="27">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -18843,12 +18838,12 @@
         <v>628</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="27">
       <c r="A15" s="8" t="s">
         <v>397</v>
       </c>
@@ -18856,7 +18851,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="27">
       <c r="A16" s="3" t="s">
         <v>622</v>
       </c>
@@ -18867,7 +18862,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="27">
       <c r="A17" t="s">
         <v>625</v>
       </c>
@@ -18878,7 +18873,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="27">
       <c r="A18" t="s">
         <v>627</v>
       </c>
@@ -18889,7 +18884,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>618</v>
       </c>
@@ -18897,7 +18892,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>617</v>
       </c>
@@ -18905,7 +18900,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>619</v>
       </c>
@@ -18913,7 +18908,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="180" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="162">
       <c r="A22" s="3" t="s">
         <v>789</v>
       </c>
@@ -18927,7 +18922,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="81">
       <c r="A23" s="3" t="s">
         <v>790</v>
       </c>
@@ -18941,7 +18936,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="67.5">
       <c r="A24" s="3" t="s">
         <v>788</v>
       </c>
@@ -18955,7 +18950,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="27">
       <c r="A25" s="3" t="s">
         <v>780</v>
       </c>
@@ -18969,7 +18964,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="94.5">
       <c r="A26" s="3" t="s">
         <v>783</v>
       </c>
@@ -18983,7 +18978,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="40.5">
       <c r="A27" s="3" t="s">
         <v>786</v>
       </c>
@@ -18997,9 +18992,9 @@
         <v>628</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="27">
       <c r="A28" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B28" t="s">
         <v>125</v>
@@ -19011,7 +19006,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="27">
       <c r="A29" s="3" t="s">
         <v>797</v>
       </c>
@@ -19025,7 +19020,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="27">
       <c r="A30" s="3" t="s">
         <v>804</v>
       </c>
@@ -19039,7 +19034,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="27">
       <c r="A31" s="3" t="s">
         <v>800</v>
       </c>
@@ -19053,7 +19048,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="27">
       <c r="A32" s="3" t="s">
         <v>806</v>
       </c>
@@ -19067,7 +19062,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="27">
       <c r="A33" s="3" t="s">
         <v>793</v>
       </c>
@@ -19081,7 +19076,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="27">
       <c r="A34" s="3" t="s">
         <v>799</v>
       </c>
@@ -19095,7 +19090,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="81">
       <c r="A35" s="3" t="s">
         <v>813</v>
       </c>
@@ -19109,7 +19104,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="27">
       <c r="A36" s="3" t="s">
         <v>815</v>
       </c>
@@ -19123,7 +19118,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="81">
       <c r="A37" s="3" t="s">
         <v>810</v>
       </c>
@@ -19137,9 +19132,9 @@
         <v>814</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="54">
       <c r="A38" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B38" t="s">
         <v>131</v>
@@ -19151,46 +19146,46 @@
         <v>808</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="27">
       <c r="A39" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B39" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C39" s="31" t="s">
         <v>816</v>
       </c>
       <c r="D39" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="27">
       <c r="A40" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="27">
+      <c r="A41" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>1023</v>
-      </c>
       <c r="D41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
   </sheetData>
@@ -19204,189 +19199,189 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="43" style="18" customWidth="1"/>
-    <col min="2" max="2" width="58.33203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="52.6640625" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="18"/>
+    <col min="2" max="2" width="58.375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="52.625" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="10.875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="27">
       <c r="A2" s="18" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27">
+      <c r="A3" s="18" t="s">
         <v>1037</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B3" s="17" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="18" t="s">
         <v>1040</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>1041</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="17" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="18" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="18" t="s">
         <v>1042</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="B6" s="17" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="18" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="18" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="18" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="81">
+      <c r="A10" s="18" t="s">
         <v>1052</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>1053</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="17" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27">
+      <c r="A11" s="18" t="s">
         <v>1054</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>1055</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="C11" s="17" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27">
+      <c r="A12" s="18" t="s">
         <v>1056</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>1057</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>1058</v>
-      </c>
       <c r="C12" s="17" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="40.5">
       <c r="A14" s="18" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>1031</v>
       </c>
-      <c r="B14" s="17" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="27">
+      <c r="A15" s="18" t="s">
         <v>1028</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D14" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>1029</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="D15" s="18" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27">
+      <c r="A16" s="18" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>1033</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>1035</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>1036</v>
-      </c>
       <c r="D16" s="18" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
   </sheetData>
